--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>716715.5186968072</v>
+        <v>714523.6415436338</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28215137.91942701</v>
+        <v>28215137.91942698</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3165573.335774303</v>
+        <v>3165573.335774305</v>
       </c>
     </row>
     <row r="9">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>36.39025468426209</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>41.31500304752735</v>
       </c>
       <c r="U3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="V4" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
     </row>
     <row r="5">
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>41.31500304752735</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="T6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>15.18661160258025</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,20 +1101,20 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="T7" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>41.31500304752735</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,76 +1290,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="T10" t="n">
-        <v>36.39025468426208</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>110.6679785290627</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>117.4435796888008</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427809</v>
       </c>
       <c r="T11" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1463,7 +1463,7 @@
         <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H12" t="n">
         <v>33.9158123956896</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T12" t="n">
         <v>125.7874466415632</v>
@@ -1548,7 +1548,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I13" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541629</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>377.3591497416162</v>
       </c>
       <c r="F14" t="n">
-        <v>225.4375933627125</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.17164010427809</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U14" t="n">
         <v>256.5154774752252</v>
@@ -1672,10 +1672,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,7 +1700,7 @@
         <v>82.55</v>
       </c>
       <c r="G15" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H15" t="n">
         <v>33.9158123956896</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T15" t="n">
         <v>125.7874466415632</v>
@@ -1785,7 +1785,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I16" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541631</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790329</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>396.9769354203298</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>235.2999513224011</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1937,7 +1937,7 @@
         <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H18" t="n">
         <v>33.9158123956896</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T18" t="n">
         <v>125.7874466415632</v>
@@ -2022,7 +2022,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I19" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541629</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>240.675072556151</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6136207896234</v>
+        <v>275.6136207896236</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>210.0834800356537</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>211.5956667680352</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>13.81728791178945</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2174,7 +2174,7 @@
         <v>82.55</v>
       </c>
       <c r="G21" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H21" t="n">
         <v>33.9158123956896</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T21" t="n">
         <v>125.7874466415632</v>
@@ -2259,7 +2259,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I22" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541629</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427809</v>
       </c>
       <c r="T23" t="n">
         <v>211.5956667680352</v>
@@ -2411,7 +2411,7 @@
         <v>82.55</v>
       </c>
       <c r="G24" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H24" t="n">
         <v>33.9158123956896</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T24" t="n">
         <v>125.7874466415632</v>
@@ -2496,7 +2496,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I25" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541629</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932874</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948839</v>
       </c>
       <c r="G26" t="n">
         <v>395.9513258013682</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427809</v>
       </c>
       <c r="T26" t="n">
         <v>211.5956667680352</v>
@@ -2648,7 +2648,7 @@
         <v>82.55</v>
       </c>
       <c r="G27" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H27" t="n">
         <v>33.9158123956896</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T27" t="n">
         <v>125.7874466415632</v>
@@ -2733,7 +2733,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I28" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541629</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427809</v>
       </c>
       <c r="T29" t="n">
         <v>211.5956667680352</v>
@@ -2885,7 +2885,7 @@
         <v>82.55</v>
       </c>
       <c r="G30" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H30" t="n">
         <v>33.9158123956896</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T30" t="n">
         <v>125.7874466415632</v>
@@ -2970,7 +2970,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I31" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541629</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427809</v>
       </c>
       <c r="T32" t="n">
         <v>211.5956667680352</v>
@@ -3122,7 +3122,7 @@
         <v>82.55</v>
       </c>
       <c r="G33" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H33" t="n">
         <v>33.9158123956896</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T33" t="n">
         <v>125.7874466415632</v>
@@ -3207,7 +3207,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I34" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541629</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>97.53922988629201</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>50.17164010427809</v>
       </c>
       <c r="T35" t="n">
-        <v>59.21582959179973</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3331,10 +3331,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>82.55</v>
       </c>
       <c r="G36" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H36" t="n">
         <v>33.9158123956896</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T36" t="n">
         <v>125.7874466415632</v>
@@ -3444,7 +3444,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I37" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541629</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>413.740459663037</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>380.826648345861</v>
       </c>
       <c r="H38" t="n">
         <v>271.5679831933489</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>50.17164010427809</v>
       </c>
       <c r="T38" t="n">
         <v>211.5956667680352</v>
@@ -3568,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3596,7 +3596,7 @@
         <v>82.55</v>
       </c>
       <c r="G39" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H39" t="n">
         <v>33.9158123956896</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T39" t="n">
         <v>125.7874466415632</v>
@@ -3681,7 +3681,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I40" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541629</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695713</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3751,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427809</v>
       </c>
       <c r="T41" t="n">
-        <v>151.2658824543883</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>283.0330070041284</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,7 +3833,7 @@
         <v>82.55</v>
       </c>
       <c r="G42" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H42" t="n">
         <v>33.9158123956896</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T42" t="n">
         <v>125.7874466415632</v>
@@ -3915,10 +3915,10 @@
         <v>163.2927798113889</v>
       </c>
       <c r="H43" t="n">
-        <v>132.7900107487582</v>
+        <v>132.7900107487581</v>
       </c>
       <c r="I43" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541631</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3982,19 +3982,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>387.3014021237981</v>
       </c>
       <c r="F44" t="n">
-        <v>81.81960715358846</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.17164010427806</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>211.5956667680352</v>
@@ -4039,10 +4039,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H45" t="n">
         <v>33.9158123956896</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T45" t="n">
         <v>125.7874466415632</v>
@@ -4155,7 +4155,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I46" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541629</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4330,28 +4330,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J2" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K2" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L2" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M2" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N2" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="O2" t="n">
-        <v>83.45630615600527</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="P2" t="n">
+        <v>85.10890627790634</v>
+      </c>
+      <c r="Q2" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R2" t="n">
         <v>165.2600121901094</v>
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.06303325820834</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C3" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D3" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E3" t="n">
         <v>3.305200243802188</v>
@@ -4409,22 +4409,22 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K3" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="L3" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="M3" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="N3" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="O3" t="n">
-        <v>42.55445313895319</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="P3" t="n">
         <v>83.45630615600527</v>
@@ -4442,19 +4442,19 @@
         <v>123.5276858794757</v>
       </c>
       <c r="U3" t="n">
-        <v>81.79535956884203</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V3" t="n">
-        <v>40.06303325820834</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W3" t="n">
-        <v>40.06303325820834</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X3" t="n">
-        <v>40.06303325820834</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.06303325820834</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="C4" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="D4" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="E4" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="F4" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="G4" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="H4" t="n">
         <v>3.305200243802188</v>
@@ -4488,22 +4488,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K4" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L4" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M4" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N4" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O4" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P4" t="n">
         <v>165.2600121901094</v>
@@ -4515,25 +4515,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S4" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="T4" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="U4" t="n">
         <v>123.5276858794757</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
+        <v>123.5276858794757</v>
+      </c>
+      <c r="W4" t="n">
         <v>81.79535956884203</v>
       </c>
-      <c r="U4" t="n">
+      <c r="X4" t="n">
+        <v>81.79535956884203</v>
+      </c>
+      <c r="Y4" t="n">
         <v>40.06303325820834</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="X4" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568152</v>
+        <v>122.8380161568153</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.73594738064263</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549121</v>
       </c>
       <c r="E5" t="n">
-        <v>27.13222579419039</v>
+        <v>27.13222579419044</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="I5" t="n">
         <v>3.305200243802188</v>
@@ -4573,19 +4573,19 @@
         <v>3.305200243802188</v>
       </c>
       <c r="L5" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M5" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N5" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O5" t="n">
-        <v>42.55445313895319</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P5" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q5" t="n">
         <v>124.3581591730573</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415467</v>
+        <v>164.4449616415468</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C6" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D6" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E6" t="n">
         <v>3.305200243802188</v>
@@ -4643,55 +4643,55 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
-        <v>44.20705326085427</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K6" t="n">
-        <v>83.45630615600527</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L6" t="n">
-        <v>124.3581591730573</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="M6" t="n">
-        <v>124.3581591730573</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="N6" t="n">
-        <v>124.3581591730573</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="O6" t="n">
-        <v>124.3581591730573</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="P6" t="n">
-        <v>124.3581591730573</v>
+        <v>152.074432455416</v>
       </c>
       <c r="Q6" t="n">
-        <v>124.3581591730573</v>
+        <v>152.074432455416</v>
       </c>
       <c r="R6" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>123.5276858794757</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="T6" t="n">
-        <v>81.79535956884203</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U6" t="n">
-        <v>40.06303325820834</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V6" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W6" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X6" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.64521196358022</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="C7" t="n">
-        <v>18.64521196358022</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D7" t="n">
-        <v>18.64521196358022</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E7" t="n">
-        <v>18.64521196358022</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F7" t="n">
-        <v>18.64521196358022</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G7" t="n">
-        <v>18.64521196358022</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H7" t="n">
-        <v>18.64521196358022</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
@@ -4728,19 +4728,19 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L7" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M7" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N7" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O7" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P7" t="n">
         <v>124.3581591730573</v>
@@ -4749,28 +4749,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>143.8421908954813</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S7" t="n">
-        <v>102.1098645848476</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T7" t="n">
-        <v>60.37753827421391</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U7" t="n">
-        <v>60.37753827421391</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V7" t="n">
-        <v>60.37753827421391</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W7" t="n">
-        <v>60.37753827421391</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X7" t="n">
-        <v>60.37753827421391</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.64521196358022</v>
+        <v>123.5276858794757</v>
       </c>
     </row>
     <row r="8">
@@ -4783,7 +4783,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
@@ -4804,22 +4804,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J8" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K8" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L8" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M8" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N8" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O8" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P8" t="n">
         <v>83.45630615600527</v>
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C9" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="D9" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="E9" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
         <v>3.305200243802188</v>
@@ -4880,28 +4880,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>29.36887340425979</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J9" t="n">
-        <v>29.36887340425979</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K9" t="n">
-        <v>29.36887340425979</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L9" t="n">
-        <v>70.27072642131186</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M9" t="n">
-        <v>111.1725794383639</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N9" t="n">
-        <v>124.3581591730573</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O9" t="n">
-        <v>124.3581591730573</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P9" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q9" t="n">
         <v>124.3581591730573</v>
@@ -4919,16 +4919,16 @@
         <v>165.2600121901094</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W9" t="n">
         <v>123.5276858794757</v>
       </c>
       <c r="X9" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y9" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C10" t="n">
         <v>45.03752655443588</v>
@@ -4953,10 +4953,10 @@
         <v>45.03752655443588</v>
       </c>
       <c r="G10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
@@ -4965,22 +4965,22 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L10" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M10" t="n">
         <v>85.10890627790634</v>
       </c>
       <c r="N10" t="n">
-        <v>126.0107592949584</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="O10" t="n">
-        <v>165.2600121901094</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="P10" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
@@ -4989,25 +4989,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S10" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="T10" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="U10" t="n">
         <v>123.5276858794757</v>
       </c>
-      <c r="T10" t="n">
-        <v>86.76985286506957</v>
-      </c>
-      <c r="U10" t="n">
-        <v>86.76985286506957</v>
-      </c>
       <c r="V10" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W10" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X10" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.76985286506957</v>
+        <v>81.79535956884203</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1914.450112971683</v>
+        <v>1037.921541728929</v>
       </c>
       <c r="C11" t="n">
-        <v>1476.307640155106</v>
+        <v>599.7790689123526</v>
       </c>
       <c r="D11" t="n">
-        <v>1040.397855329551</v>
+        <v>487.9932320143095</v>
       </c>
       <c r="E11" t="n">
-        <v>606.6231104878457</v>
+        <v>487.9932320143095</v>
       </c>
       <c r="F11" t="n">
-        <v>178.7556808970534</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G11" t="n">
         <v>60.12580242351726</v>
@@ -5041,16 +5041,16 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J11" t="n">
-        <v>670.0153478550028</v>
+        <v>234.7606604020847</v>
       </c>
       <c r="K11" t="n">
-        <v>879.6308838212444</v>
+        <v>879.6308838212452</v>
       </c>
       <c r="L11" t="n">
-        <v>1103.433794197928</v>
+        <v>1103.433794197929</v>
       </c>
       <c r="M11" t="n">
-        <v>1352.457654196216</v>
+        <v>1352.457654196217</v>
       </c>
       <c r="N11" t="n">
         <v>1605.510980595707</v>
@@ -5071,22 +5071,22 @@
         <v>2955.611696828108</v>
       </c>
       <c r="T11" t="n">
-        <v>2741.878700092719</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="U11" t="n">
-        <v>2741.878700092719</v>
+        <v>2696.50515392384</v>
       </c>
       <c r="V11" t="n">
-        <v>2741.878700092719</v>
+        <v>2696.50515392384</v>
       </c>
       <c r="W11" t="n">
-        <v>2741.878700092719</v>
+        <v>2291.649699334873</v>
       </c>
       <c r="X11" t="n">
-        <v>2322.736236672029</v>
+        <v>1872.507235914184</v>
       </c>
       <c r="Y11" t="n">
-        <v>1914.450112971683</v>
+        <v>1464.221112213837</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I12" t="n">
-        <v>86.25132408734106</v>
+        <v>86.25132408734103</v>
       </c>
       <c r="J12" t="n">
-        <v>482.5000773542449</v>
+        <v>157.9417523880325</v>
       </c>
       <c r="K12" t="n">
-        <v>605.0304380035444</v>
+        <v>280.4721130373318</v>
       </c>
       <c r="L12" t="n">
-        <v>769.7876290822192</v>
+        <v>838.5347795517424</v>
       </c>
       <c r="M12" t="n">
-        <v>962.051499976372</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N12" t="n">
         <v>1228.151173903613</v>
@@ -5202,10 +5202,10 @@
         <v>191.6817584242374</v>
       </c>
       <c r="K13" t="n">
-        <v>265.591587572298</v>
+        <v>265.5915875722979</v>
       </c>
       <c r="L13" t="n">
-        <v>744.3689516438142</v>
+        <v>744.3689516438145</v>
       </c>
       <c r="M13" t="n">
         <v>1303.573255757435</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>725.9830160105106</v>
+        <v>1715.299752533311</v>
       </c>
       <c r="C14" t="n">
-        <v>287.8405431939339</v>
+        <v>1277.157279716734</v>
       </c>
       <c r="D14" t="n">
-        <v>287.8405431939339</v>
+        <v>841.2474948911783</v>
       </c>
       <c r="E14" t="n">
-        <v>287.8405431939339</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="F14" t="n">
-        <v>60.12580242351726</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="G14" t="n">
         <v>60.12580242351726</v>
@@ -5278,52 +5278,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J14" t="n">
-        <v>670.0153478550028</v>
+        <v>234.7606604020847</v>
       </c>
       <c r="K14" t="n">
-        <v>905.8757751654966</v>
+        <v>978.8174653931109</v>
       </c>
       <c r="L14" t="n">
-        <v>1649.932580156523</v>
+        <v>1202.620375769794</v>
       </c>
       <c r="M14" t="n">
-        <v>1898.956440154811</v>
+        <v>1451.644235768082</v>
       </c>
       <c r="N14" t="n">
-        <v>2152.009766554301</v>
+        <v>1704.697562167573</v>
       </c>
       <c r="O14" t="n">
-        <v>2390.960846925826</v>
+        <v>1943.648642539098</v>
       </c>
       <c r="P14" t="n">
-        <v>2594.900065694295</v>
+        <v>2687.705447530124</v>
       </c>
       <c r="Q14" t="n">
-        <v>2748.049925732253</v>
+        <v>2917.20399048531</v>
       </c>
       <c r="R14" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S14" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="T14" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092719</v>
       </c>
       <c r="U14" t="n">
-        <v>2747.183578271595</v>
+        <v>2482.772157188451</v>
       </c>
       <c r="V14" t="n">
-        <v>2384.566628205421</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="W14" t="n">
-        <v>1979.711173616455</v>
+        <v>1715.299752533311</v>
       </c>
       <c r="X14" t="n">
-        <v>1560.568710195765</v>
+        <v>1715.299752533311</v>
       </c>
       <c r="Y14" t="n">
-        <v>1152.282586495418</v>
+        <v>1715.299752533311</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G15" t="n">
-        <v>94.38419878279969</v>
+        <v>94.3841987827997</v>
       </c>
       <c r="H15" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="I15" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J15" t="n">
-        <v>157.9417523880326</v>
+        <v>184.0054255484901</v>
       </c>
       <c r="K15" t="n">
-        <v>280.472113037332</v>
+        <v>306.5357861977894</v>
       </c>
       <c r="L15" t="n">
-        <v>721.3620014574019</v>
+        <v>471.2929772764641</v>
       </c>
       <c r="M15" t="n">
-        <v>913.6258723515548</v>
+        <v>663.5568481706167</v>
       </c>
       <c r="N15" t="n">
-        <v>1110.978395809273</v>
+        <v>860.9093716283347</v>
       </c>
       <c r="O15" t="n">
-        <v>1291.517398828056</v>
+        <v>1041.448374647118</v>
       </c>
       <c r="P15" t="n">
-        <v>1436.415865350293</v>
+        <v>1186.346841169355</v>
       </c>
       <c r="Q15" t="n">
-        <v>1533.276652930412</v>
+        <v>1650.449431024751</v>
       </c>
       <c r="R15" t="n">
         <v>1697.561900409858</v>
@@ -5430,28 +5430,28 @@
         <v>263.3976759832894</v>
       </c>
       <c r="H16" t="n">
-        <v>129.2663519946448</v>
+        <v>129.2663519946449</v>
       </c>
       <c r="I16" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="J16" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K16" t="n">
-        <v>540.3500421434336</v>
+        <v>453.7703569787436</v>
       </c>
       <c r="L16" t="n">
-        <v>1053.139058957356</v>
+        <v>966.5593737926656</v>
       </c>
       <c r="M16" t="n">
-        <v>1612.343363070977</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N16" t="n">
-        <v>2151.951474057206</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O16" t="n">
-        <v>2661.538565504743</v>
+        <v>2352.768458191202</v>
       </c>
       <c r="P16" t="n">
         <v>2777.215599969509</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2160.848087270266</v>
+        <v>1357.67776168157</v>
       </c>
       <c r="C17" t="n">
-        <v>1722.705614453689</v>
+        <v>1357.67776168157</v>
       </c>
       <c r="D17" t="n">
-        <v>1321.718810998811</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="E17" t="n">
-        <v>887.9440661571057</v>
+        <v>487.9932320143095</v>
       </c>
       <c r="F17" t="n">
-        <v>460.0766365663134</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G17" t="n">
         <v>60.12580242351726</v>
@@ -5515,25 +5515,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J17" t="n">
-        <v>234.7606604020849</v>
+        <v>234.7606604020847</v>
       </c>
       <c r="K17" t="n">
-        <v>415.1612716583818</v>
+        <v>886.0120835572819</v>
       </c>
       <c r="L17" t="n">
-        <v>638.9641820350655</v>
+        <v>1109.814993933966</v>
       </c>
       <c r="M17" t="n">
-        <v>887.9880420333536</v>
+        <v>1358.838853932253</v>
       </c>
       <c r="N17" t="n">
-        <v>1632.04484702438</v>
+        <v>1611.892180331744</v>
       </c>
       <c r="O17" t="n">
-        <v>1870.995927395905</v>
+        <v>1850.843260703269</v>
       </c>
       <c r="P17" t="n">
-        <v>2074.935146164373</v>
+        <v>2594.900065694295</v>
       </c>
       <c r="Q17" t="n">
         <v>2748.049925732253</v>
@@ -5545,22 +5545,22 @@
         <v>3006.290121175863</v>
       </c>
       <c r="T17" t="n">
-        <v>3006.290121175863</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="U17" t="n">
-        <v>3006.290121175863</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="V17" t="n">
-        <v>3006.290121175863</v>
+        <v>2429.9401743743</v>
       </c>
       <c r="W17" t="n">
-        <v>3006.290121175863</v>
+        <v>2192.263455866824</v>
       </c>
       <c r="X17" t="n">
-        <v>2587.147657755173</v>
+        <v>2192.263455866824</v>
       </c>
       <c r="Y17" t="n">
-        <v>2587.147657755173</v>
+        <v>1783.977332166477</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I18" t="n">
-        <v>86.25132408734105</v>
+        <v>86.25132408734103</v>
       </c>
       <c r="J18" t="n">
-        <v>157.9417523880326</v>
+        <v>157.9417523880325</v>
       </c>
       <c r="K18" t="n">
-        <v>280.472113037332</v>
+        <v>280.4721130373318</v>
       </c>
       <c r="L18" t="n">
-        <v>445.2293041160067</v>
+        <v>445.2293041160065</v>
       </c>
       <c r="M18" t="n">
-        <v>637.4931750101596</v>
+        <v>637.4931750101591</v>
       </c>
       <c r="N18" t="n">
-        <v>834.8456984678777</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O18" t="n">
-        <v>1015.384701486661</v>
+        <v>1408.690176922396</v>
       </c>
       <c r="P18" t="n">
-        <v>1160.283168008898</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q18" t="n">
         <v>1650.449431024751</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1113.244639915735</v>
+        <v>1113.244639915734</v>
       </c>
       <c r="C19" t="n">
-        <v>940.6829283989596</v>
+        <v>940.682928398959</v>
       </c>
       <c r="D19" t="n">
-        <v>774.8049356004822</v>
+        <v>774.8049356004817</v>
       </c>
       <c r="E19" t="n">
-        <v>605.0469318512191</v>
+        <v>605.0469318512189</v>
       </c>
       <c r="F19" t="n">
-        <v>428.3398778129754</v>
+        <v>428.3398778129751</v>
       </c>
       <c r="G19" t="n">
         <v>263.3976759832894</v>
       </c>
       <c r="H19" t="n">
-        <v>129.2663519946445</v>
+        <v>129.2663519946448</v>
       </c>
       <c r="I19" t="n">
         <v>60.12580242351726</v>
@@ -5676,16 +5676,16 @@
         <v>191.6817584242374</v>
       </c>
       <c r="K19" t="n">
-        <v>540.3500421434336</v>
+        <v>540.3500421434334</v>
       </c>
       <c r="L19" t="n">
-        <v>1053.139058957356</v>
+        <v>1053.139058957355</v>
       </c>
       <c r="M19" t="n">
-        <v>1612.343363070977</v>
+        <v>1612.343363070976</v>
       </c>
       <c r="N19" t="n">
-        <v>2151.951474057206</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O19" t="n">
         <v>2352.768458191201</v>
@@ -5706,7 +5706,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U19" t="n">
-        <v>2336.856596530479</v>
+        <v>2336.856596530478</v>
       </c>
       <c r="V19" t="n">
         <v>2049.901088400909</v>
@@ -5718,7 +5718,7 @@
         <v>1532.482929320613</v>
       </c>
       <c r="Y19" t="n">
-        <v>1305.063258634722</v>
+        <v>1305.063258634721</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1133.973512245564</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="C20" t="n">
-        <v>1133.973512245564</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="D20" t="n">
-        <v>1133.973512245564</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="E20" t="n">
-        <v>700.1987674038587</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="F20" t="n">
-        <v>272.3313378130665</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="G20" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H20" t="n">
         <v>60.12580242351726</v>
@@ -5752,28 +5752,28 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J20" t="n">
-        <v>670.0153478550028</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K20" t="n">
-        <v>850.4159591112997</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L20" t="n">
-        <v>1074.218869487984</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M20" t="n">
-        <v>1323.242729486272</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N20" t="n">
-        <v>2067.299534477298</v>
+        <v>1576.296055885761</v>
       </c>
       <c r="O20" t="n">
-        <v>2560.114911678883</v>
+        <v>1815.247136257286</v>
       </c>
       <c r="P20" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q20" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R20" t="n">
         <v>3006.290121175863</v>
@@ -5785,19 +5785,19 @@
         <v>2792.557124440474</v>
       </c>
       <c r="U20" t="n">
-        <v>2792.557124440474</v>
+        <v>2778.600267963919</v>
       </c>
       <c r="V20" t="n">
-        <v>2792.557124440474</v>
+        <v>2415.983317897745</v>
       </c>
       <c r="W20" t="n">
-        <v>2387.701669851507</v>
+        <v>2415.983317897745</v>
       </c>
       <c r="X20" t="n">
-        <v>1968.559206430818</v>
+        <v>1996.840854477056</v>
       </c>
       <c r="Y20" t="n">
-        <v>1560.273082730471</v>
+        <v>1588.554730776709</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I21" t="n">
-        <v>86.25132408734105</v>
+        <v>86.25132408734103</v>
       </c>
       <c r="J21" t="n">
-        <v>157.9417523880326</v>
+        <v>157.9417523880325</v>
       </c>
       <c r="K21" t="n">
-        <v>280.472113037332</v>
+        <v>280.4721130373318</v>
       </c>
       <c r="L21" t="n">
-        <v>445.2293041160067</v>
+        <v>445.2293041160065</v>
       </c>
       <c r="M21" t="n">
-        <v>637.4931750101596</v>
+        <v>637.4931750101591</v>
       </c>
       <c r="N21" t="n">
-        <v>834.8456984678777</v>
+        <v>834.8456984678771</v>
       </c>
       <c r="O21" t="n">
-        <v>1015.384701486661</v>
+        <v>1015.38470148666</v>
       </c>
       <c r="P21" t="n">
-        <v>1553.588643444633</v>
+        <v>1160.283168008897</v>
       </c>
       <c r="Q21" t="n">
         <v>1650.449431024751</v>
@@ -5913,22 +5913,22 @@
         <v>191.6817584242374</v>
       </c>
       <c r="K22" t="n">
-        <v>540.3500421434336</v>
+        <v>540.3500421434334</v>
       </c>
       <c r="L22" t="n">
-        <v>744.3689516438138</v>
+        <v>1053.139058957355</v>
       </c>
       <c r="M22" t="n">
-        <v>1303.573255757435</v>
+        <v>1612.343363070976</v>
       </c>
       <c r="N22" t="n">
-        <v>1843.181366743664</v>
+        <v>2151.951474057205</v>
       </c>
       <c r="O22" t="n">
-        <v>2352.768458191201</v>
+        <v>2661.538565504742</v>
       </c>
       <c r="P22" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q22" t="n">
         <v>2998.677814292588</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2511.072174364379</v>
+        <v>2511.072174364378</v>
       </c>
       <c r="C23" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D23" t="n">
-        <v>1637.019916722247</v>
+        <v>1637.019916722246</v>
       </c>
       <c r="E23" t="n">
-        <v>1203.245171880542</v>
+        <v>1203.245171880541</v>
       </c>
       <c r="F23" t="n">
-        <v>775.3777422897501</v>
+        <v>775.3777422897492</v>
       </c>
       <c r="G23" t="n">
-        <v>375.4269081469538</v>
+        <v>375.4269081469534</v>
       </c>
       <c r="H23" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I23" t="n">
-        <v>155.3825509282454</v>
+        <v>155.3825509282453</v>
       </c>
       <c r="J23" t="n">
-        <v>711.005359443743</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K23" t="n">
-        <v>1725.756262658218</v>
+        <v>891.4059707000398</v>
       </c>
       <c r="L23" t="n">
-        <v>1949.559173034902</v>
+        <v>2142.714169101726</v>
       </c>
       <c r="M23" t="n">
-        <v>2950.202147589628</v>
+        <v>2573.648358799833</v>
       </c>
       <c r="N23" t="n">
-        <v>4201.510345991315</v>
+        <v>2826.701685199323</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.46142636284</v>
+        <v>3065.652765570849</v>
       </c>
       <c r="P23" t="n">
-        <v>4644.400645131309</v>
+        <v>4097.901859172714</v>
       </c>
       <c r="Q23" t="n">
-        <v>4797.550505169267</v>
+        <v>4797.550505169266</v>
       </c>
       <c r="R23" t="n">
-        <v>5055.790700612876</v>
+        <v>5055.790700612875</v>
       </c>
       <c r="S23" t="n">
-        <v>5005.11227626512</v>
+        <v>5005.112276265119</v>
       </c>
       <c r="T23" t="n">
-        <v>4791.379279529731</v>
+        <v>4791.37927952973</v>
       </c>
       <c r="U23" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625462</v>
       </c>
       <c r="V23" t="n">
         <v>4169.655786559289</v>
       </c>
       <c r="W23" t="n">
-        <v>3764.800331970323</v>
+        <v>3764.800331970322</v>
       </c>
       <c r="X23" t="n">
-        <v>3345.657868549634</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y23" t="n">
-        <v>2937.371744849287</v>
+        <v>2937.371744849286</v>
       </c>
     </row>
     <row r="24">
@@ -6050,16 +6050,16 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D24" t="n">
-        <v>397.4893413874964</v>
+        <v>397.4893413874963</v>
       </c>
       <c r="E24" t="n">
-        <v>303.3689267144501</v>
+        <v>303.36892671445</v>
       </c>
       <c r="F24" t="n">
         <v>219.9850883306117</v>
       </c>
       <c r="G24" t="n">
-        <v>135.37421037154</v>
+        <v>135.3742103715399</v>
       </c>
       <c r="H24" t="n">
         <v>101.1158140122575</v>
@@ -6068,25 +6068,25 @@
         <v>127.2413356760813</v>
       </c>
       <c r="J24" t="n">
-        <v>198.9317639767728</v>
+        <v>198.9317639767727</v>
       </c>
       <c r="K24" t="n">
-        <v>321.4621246260722</v>
+        <v>321.4621246260721</v>
       </c>
       <c r="L24" t="n">
-        <v>486.219315704747</v>
+        <v>486.2193157047467</v>
       </c>
       <c r="M24" t="n">
-        <v>1071.788662034635</v>
+        <v>678.4831865988995</v>
       </c>
       <c r="N24" t="n">
-        <v>1269.141185492353</v>
+        <v>875.8357100566174</v>
       </c>
       <c r="O24" t="n">
-        <v>1449.680188511136</v>
+        <v>1056.3747130754</v>
       </c>
       <c r="P24" t="n">
-        <v>1594.578655033373</v>
+        <v>1201.273179597637</v>
       </c>
       <c r="Q24" t="n">
         <v>1691.439442613492</v>
@@ -6147,10 +6147,10 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J25" t="n">
-        <v>232.6717700129777</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K25" t="n">
-        <v>581.3400537321738</v>
+        <v>581.3400537321736</v>
       </c>
       <c r="L25" t="n">
         <v>1094.129070546096</v>
@@ -6211,7 +6211,7 @@
         <v>1637.019916722246</v>
       </c>
       <c r="E26" t="n">
-        <v>1203.245171880542</v>
+        <v>1203.245171880541</v>
       </c>
       <c r="F26" t="n">
         <v>775.3777422897496</v>
@@ -6226,28 +6226,28 @@
         <v>155.3825509282453</v>
       </c>
       <c r="J26" t="n">
-        <v>711.005359443743</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K26" t="n">
         <v>1725.756262658218</v>
       </c>
       <c r="L26" t="n">
-        <v>1949.559173034902</v>
+        <v>1949.559173034901</v>
       </c>
       <c r="M26" t="n">
-        <v>2198.58303303319</v>
+        <v>2950.202147589629</v>
       </c>
       <c r="N26" t="n">
-        <v>2451.63635943268</v>
+        <v>4201.510345991315</v>
       </c>
       <c r="O26" t="n">
-        <v>3670.767106374512</v>
+        <v>4440.46142636284</v>
       </c>
       <c r="P26" t="n">
-        <v>4703.016199976377</v>
+        <v>4644.400645131308</v>
       </c>
       <c r="Q26" t="n">
-        <v>4966.704569922323</v>
+        <v>4797.550505169266</v>
       </c>
       <c r="R26" t="n">
         <v>5055.790700612875</v>
@@ -6293,7 +6293,7 @@
         <v>303.36892671445</v>
       </c>
       <c r="F27" t="n">
-        <v>219.9850883306116</v>
+        <v>219.9850883306117</v>
       </c>
       <c r="G27" t="n">
         <v>135.3742103715399</v>
@@ -6305,22 +6305,22 @@
         <v>127.2413356760813</v>
       </c>
       <c r="J27" t="n">
-        <v>198.9317639767728</v>
+        <v>198.9317639767727</v>
       </c>
       <c r="K27" t="n">
-        <v>321.4621246260722</v>
+        <v>321.4621246260721</v>
       </c>
       <c r="L27" t="n">
-        <v>486.219315704747</v>
+        <v>486.2193157047467</v>
       </c>
       <c r="M27" t="n">
-        <v>678.4831865988999</v>
+        <v>1071.788662034635</v>
       </c>
       <c r="N27" t="n">
-        <v>875.8357100566179</v>
+        <v>1269.141185492353</v>
       </c>
       <c r="O27" t="n">
-        <v>1449.680188511136</v>
+        <v>1449.680188511137</v>
       </c>
       <c r="P27" t="n">
         <v>1594.578655033373</v>
@@ -6387,7 +6387,7 @@
         <v>232.6717700129776</v>
       </c>
       <c r="K28" t="n">
-        <v>581.3400537321738</v>
+        <v>581.3400537321736</v>
       </c>
       <c r="L28" t="n">
         <v>1094.129070546096</v>
@@ -6396,10 +6396,10 @@
         <v>1653.333374659717</v>
       </c>
       <c r="N28" t="n">
-        <v>2192.941485645946</v>
+        <v>2192.941485645945</v>
       </c>
       <c r="O28" t="n">
-        <v>2702.528577093484</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P28" t="n">
         <v>2818.205611558249</v>
@@ -6463,22 +6463,22 @@
         <v>155.3825509282453</v>
       </c>
       <c r="J29" t="n">
-        <v>275.7506719908251</v>
+        <v>275.750671990825</v>
       </c>
       <c r="K29" t="n">
-        <v>1289.795986607611</v>
+        <v>456.1512832471217</v>
       </c>
       <c r="L29" t="n">
-        <v>1513.598896984295</v>
+        <v>1707.459481648808</v>
       </c>
       <c r="M29" t="n">
-        <v>1762.622756982583</v>
+        <v>1956.483341647096</v>
       </c>
       <c r="N29" t="n">
-        <v>2015.676083382074</v>
+        <v>2843.985958215471</v>
       </c>
       <c r="O29" t="n">
-        <v>3234.806830323905</v>
+        <v>4063.116705157302</v>
       </c>
       <c r="P29" t="n">
         <v>4267.05592392577</v>
@@ -6530,7 +6530,7 @@
         <v>303.36892671445</v>
       </c>
       <c r="F30" t="n">
-        <v>219.9850883306116</v>
+        <v>219.9850883306117</v>
       </c>
       <c r="G30" t="n">
         <v>135.3742103715399</v>
@@ -6539,25 +6539,25 @@
         <v>101.1158140122575</v>
       </c>
       <c r="I30" t="n">
-        <v>153.3050088365389</v>
+        <v>127.2413356760813</v>
       </c>
       <c r="J30" t="n">
-        <v>224.9954371372304</v>
+        <v>198.9317639767727</v>
       </c>
       <c r="K30" t="n">
-        <v>347.5257977865298</v>
+        <v>321.4621246260721</v>
       </c>
       <c r="L30" t="n">
-        <v>512.2829888652046</v>
+        <v>486.2193157047467</v>
       </c>
       <c r="M30" t="n">
-        <v>704.5468597593574</v>
+        <v>1071.788662034635</v>
       </c>
       <c r="N30" t="n">
-        <v>901.8993832170756</v>
+        <v>1269.141185492353</v>
       </c>
       <c r="O30" t="n">
-        <v>1082.438386235859</v>
+        <v>1449.680188511137</v>
       </c>
       <c r="P30" t="n">
         <v>1594.578655033373</v>
@@ -6624,22 +6624,22 @@
         <v>232.6717700129776</v>
       </c>
       <c r="K31" t="n">
-        <v>581.3400537321738</v>
+        <v>581.3400537321736</v>
       </c>
       <c r="L31" t="n">
-        <v>1094.129070546096</v>
+        <v>785.3589632325544</v>
       </c>
       <c r="M31" t="n">
-        <v>1653.333374659717</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N31" t="n">
-        <v>2192.941485645946</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O31" t="n">
-        <v>2561.951244644274</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P31" t="n">
-        <v>2986.398386422581</v>
+        <v>2818.205611558249</v>
       </c>
       <c r="Q31" t="n">
         <v>3039.667825881328</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2511.07217436438</v>
+        <v>2511.072174364379</v>
       </c>
       <c r="C32" t="n">
-        <v>2072.929701547804</v>
+        <v>2072.929701547803</v>
       </c>
       <c r="D32" t="n">
-        <v>1637.019916722248</v>
+        <v>1637.019916722247</v>
       </c>
       <c r="E32" t="n">
-        <v>1203.245171880543</v>
+        <v>1203.245171880542</v>
       </c>
       <c r="F32" t="n">
-        <v>775.377742289751</v>
+        <v>775.3777422897501</v>
       </c>
       <c r="G32" t="n">
-        <v>375.4269081469547</v>
+        <v>375.4269081469538</v>
       </c>
       <c r="H32" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I32" t="n">
-        <v>155.3825509282454</v>
+        <v>155.3825509282453</v>
       </c>
       <c r="J32" t="n">
-        <v>275.7506719908251</v>
+        <v>275.750671990825</v>
       </c>
       <c r="K32" t="n">
         <v>1290.5015752053</v>
       </c>
       <c r="L32" t="n">
-        <v>1514.304485581984</v>
+        <v>1698.893949187942</v>
       </c>
       <c r="M32" t="n">
-        <v>1763.328345580272</v>
+        <v>2950.202147589629</v>
       </c>
       <c r="N32" t="n">
-        <v>2016.381671979763</v>
+        <v>4201.510345991316</v>
       </c>
       <c r="O32" t="n">
-        <v>3235.512418921594</v>
+        <v>4440.461426362841</v>
       </c>
       <c r="P32" t="n">
-        <v>4267.055923925771</v>
+        <v>4644.400645131309</v>
       </c>
       <c r="Q32" t="n">
-        <v>4966.704569922324</v>
+        <v>4797.550505169267</v>
       </c>
       <c r="R32" t="n">
         <v>5055.790700612876</v>
       </c>
       <c r="S32" t="n">
-        <v>5005.112276265121</v>
+        <v>5005.11227626512</v>
       </c>
       <c r="T32" t="n">
-        <v>4791.379279529732</v>
+        <v>4791.379279529731</v>
       </c>
       <c r="U32" t="n">
-        <v>4532.272736625464</v>
+        <v>4532.272736625463</v>
       </c>
       <c r="V32" t="n">
-        <v>4169.65578655929</v>
+        <v>4169.655786559289</v>
       </c>
       <c r="W32" t="n">
-        <v>3764.800331970324</v>
+        <v>3764.800331970323</v>
       </c>
       <c r="X32" t="n">
-        <v>3345.657868549635</v>
+        <v>3345.657868549634</v>
       </c>
       <c r="Y32" t="n">
-        <v>2937.371744849288</v>
+        <v>2937.371744849287</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>198.9317639767728</v>
       </c>
       <c r="K33" t="n">
-        <v>714.7676000618073</v>
+        <v>321.4621246260721</v>
       </c>
       <c r="L33" t="n">
-        <v>879.5247911404821</v>
+        <v>486.2193157047467</v>
       </c>
       <c r="M33" t="n">
-        <v>1071.788662034635</v>
+        <v>678.4831865988995</v>
       </c>
       <c r="N33" t="n">
         <v>1269.141185492353</v>
       </c>
       <c r="O33" t="n">
-        <v>1449.680188511136</v>
+        <v>1449.680188511137</v>
       </c>
       <c r="P33" t="n">
         <v>1594.578655033373</v>
@@ -6858,13 +6858,13 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J34" t="n">
-        <v>232.6717700129777</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K34" t="n">
-        <v>581.3400537321738</v>
+        <v>581.3400537321737</v>
       </c>
       <c r="L34" t="n">
-        <v>785.3589632325541</v>
+        <v>785.3589632325544</v>
       </c>
       <c r="M34" t="n">
         <v>1344.563267346175</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1759.861283815387</v>
+        <v>1208.489154200345</v>
       </c>
       <c r="C35" t="n">
-        <v>1321.718810998811</v>
+        <v>770.3466813837687</v>
       </c>
       <c r="D35" t="n">
-        <v>1321.718810998811</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="E35" t="n">
-        <v>887.9440661571057</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="F35" t="n">
-        <v>460.0766365663134</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="G35" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H35" t="n">
         <v>60.12580242351726</v>
@@ -6937,25 +6937,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J35" t="n">
-        <v>234.7606604020849</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K35" t="n">
-        <v>415.1612716583818</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L35" t="n">
-        <v>638.9641820350655</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M35" t="n">
-        <v>887.9880420333536</v>
+        <v>1818.275674479009</v>
       </c>
       <c r="N35" t="n">
-        <v>1141.041368432844</v>
+        <v>2071.329000878499</v>
       </c>
       <c r="O35" t="n">
-        <v>1885.09817342387</v>
+        <v>2310.280081250024</v>
       </c>
       <c r="P35" t="n">
-        <v>2594.900065694295</v>
+        <v>2514.219300018493</v>
       </c>
       <c r="Q35" t="n">
         <v>2748.049925732253</v>
@@ -6964,25 +6964,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S35" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T35" t="n">
-        <v>2946.476151891216</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U35" t="n">
-        <v>2946.476151891216</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V35" t="n">
-        <v>2583.859201825043</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="W35" t="n">
-        <v>2179.003747236076</v>
+        <v>1715.29975253331</v>
       </c>
       <c r="X35" t="n">
-        <v>1759.861283815387</v>
+        <v>1715.29975253331</v>
       </c>
       <c r="Y35" t="n">
-        <v>1759.861283815387</v>
+        <v>1307.013628832964</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1866.774300581565</v>
+        <v>558.0460798155606</v>
       </c>
       <c r="C36" t="n">
-        <v>1760.317839418207</v>
+        <v>451.5896186522028</v>
       </c>
       <c r="D36" t="n">
-        <v>1665.227550564761</v>
+        <v>356.4993297987561</v>
       </c>
       <c r="E36" t="n">
-        <v>1571.107135891714</v>
+        <v>262.3789151257098</v>
       </c>
       <c r="F36" t="n">
-        <v>1487.723297507876</v>
+        <v>178.9950767418714</v>
       </c>
       <c r="G36" t="n">
-        <v>1403.112419548804</v>
+        <v>94.38419878279969</v>
       </c>
       <c r="H36" t="n">
-        <v>1368.854023189522</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="I36" t="n">
-        <v>1394.979544853345</v>
+        <v>86.25132408734103</v>
       </c>
       <c r="J36" t="n">
-        <v>1791.228298120249</v>
+        <v>157.9417523880325</v>
       </c>
       <c r="K36" t="n">
-        <v>1913.758658769549</v>
+        <v>280.4721130373318</v>
       </c>
       <c r="L36" t="n">
-        <v>2078.515849848223</v>
+        <v>445.2293041160065</v>
       </c>
       <c r="M36" t="n">
-        <v>2270.779720742376</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N36" t="n">
-        <v>2468.132244200094</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O36" t="n">
-        <v>2648.671247218877</v>
+        <v>1408.690176922396</v>
       </c>
       <c r="P36" t="n">
-        <v>2793.569713741114</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q36" t="n">
-        <v>2890.430501321233</v>
+        <v>1650.449431024751</v>
       </c>
       <c r="R36" t="n">
-        <v>3006.290121175863</v>
+        <v>1697.561900409858</v>
       </c>
       <c r="S36" t="n">
-        <v>2957.215327773555</v>
+        <v>1648.487107007551</v>
       </c>
       <c r="T36" t="n">
-        <v>2830.157300862885</v>
+        <v>1521.429080096881</v>
       </c>
       <c r="U36" t="n">
-        <v>2653.871688848034</v>
+        <v>1345.14346808203</v>
       </c>
       <c r="V36" t="n">
-        <v>2454.754170910033</v>
+        <v>1146.025950144029</v>
       </c>
       <c r="W36" t="n">
-        <v>2269.431416643227</v>
+        <v>960.7031958772229</v>
       </c>
       <c r="X36" t="n">
-        <v>2114.563980882107</v>
+        <v>805.835760116103</v>
       </c>
       <c r="Y36" t="n">
-        <v>1988.078201661328</v>
+        <v>679.3499808953237</v>
       </c>
     </row>
     <row r="37">
@@ -7098,10 +7098,10 @@
         <v>191.6817584242374</v>
       </c>
       <c r="K37" t="n">
-        <v>540.3500421434336</v>
+        <v>540.3500421434334</v>
       </c>
       <c r="L37" t="n">
-        <v>744.3689516438138</v>
+        <v>744.3689516438142</v>
       </c>
       <c r="M37" t="n">
         <v>1303.573255757435</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1190.49902560008</v>
+        <v>1146.977708316542</v>
       </c>
       <c r="C38" t="n">
-        <v>752.356552783503</v>
+        <v>1146.977708316542</v>
       </c>
       <c r="D38" t="n">
-        <v>334.4368965582132</v>
+        <v>1146.977708316542</v>
       </c>
       <c r="E38" t="n">
-        <v>334.4368965582132</v>
+        <v>1146.977708316542</v>
       </c>
       <c r="F38" t="n">
-        <v>334.4368965582132</v>
+        <v>719.1102787257496</v>
       </c>
       <c r="G38" t="n">
         <v>334.4368965582132</v>
@@ -7174,52 +7174,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J38" t="n">
-        <v>670.0153478550028</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K38" t="n">
-        <v>905.875775165497</v>
+        <v>1414.072152846029</v>
       </c>
       <c r="L38" t="n">
-        <v>1649.932580156523</v>
+        <v>1819.08664490958</v>
       </c>
       <c r="M38" t="n">
-        <v>1898.956440154811</v>
+        <v>2068.110504907868</v>
       </c>
       <c r="N38" t="n">
-        <v>2152.009766554302</v>
+        <v>2321.163831307358</v>
       </c>
       <c r="O38" t="n">
-        <v>2390.960846925827</v>
+        <v>2560.114911678883</v>
       </c>
       <c r="P38" t="n">
-        <v>2594.900065694295</v>
+        <v>2764.054130447352</v>
       </c>
       <c r="Q38" t="n">
-        <v>2748.049925732254</v>
+        <v>2917.20399048531</v>
       </c>
       <c r="R38" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S38" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T38" t="n">
-        <v>2792.557124440474</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U38" t="n">
-        <v>2792.557124440474</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="V38" t="n">
-        <v>2429.940174374301</v>
+        <v>2379.261750026545</v>
       </c>
       <c r="W38" t="n">
-        <v>2025.084719785334</v>
+        <v>1974.406295437578</v>
       </c>
       <c r="X38" t="n">
-        <v>2025.084719785334</v>
+        <v>1555.263832016889</v>
       </c>
       <c r="Y38" t="n">
-        <v>1616.798596084987</v>
+        <v>1146.977708316542</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1866.774300581566</v>
+        <v>558.0460798155606</v>
       </c>
       <c r="C39" t="n">
-        <v>1760.317839418208</v>
+        <v>451.5896186522028</v>
       </c>
       <c r="D39" t="n">
-        <v>1665.227550564761</v>
+        <v>356.4993297987561</v>
       </c>
       <c r="E39" t="n">
-        <v>1571.107135891715</v>
+        <v>262.3789151257098</v>
       </c>
       <c r="F39" t="n">
-        <v>1487.723297507876</v>
+        <v>178.9950767418714</v>
       </c>
       <c r="G39" t="n">
-        <v>1403.112419548805</v>
+        <v>94.38419878279969</v>
       </c>
       <c r="H39" t="n">
-        <v>1368.854023189522</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="I39" t="n">
-        <v>1421.043218013804</v>
+        <v>86.25132408734103</v>
       </c>
       <c r="J39" t="n">
-        <v>1817.291971280707</v>
+        <v>482.5000773542448</v>
       </c>
       <c r="K39" t="n">
-        <v>1939.822331930007</v>
+        <v>605.0304380035442</v>
       </c>
       <c r="L39" t="n">
-        <v>2104.579523008681</v>
+        <v>769.7876290822187</v>
       </c>
       <c r="M39" t="n">
-        <v>2296.843393902834</v>
+        <v>962.0514999763715</v>
       </c>
       <c r="N39" t="n">
-        <v>2494.195917360552</v>
+        <v>1159.404023434089</v>
       </c>
       <c r="O39" t="n">
-        <v>2674.734920379336</v>
+        <v>1339.943026452873</v>
       </c>
       <c r="P39" t="n">
-        <v>2819.633386901573</v>
+        <v>1484.841492975109</v>
       </c>
       <c r="Q39" t="n">
-        <v>2916.494174481691</v>
+        <v>1581.702280555228</v>
       </c>
       <c r="R39" t="n">
-        <v>3006.290121175863</v>
+        <v>1697.561900409858</v>
       </c>
       <c r="S39" t="n">
-        <v>2957.215327773556</v>
+        <v>1648.487107007551</v>
       </c>
       <c r="T39" t="n">
-        <v>2830.157300862886</v>
+        <v>1521.429080096881</v>
       </c>
       <c r="U39" t="n">
-        <v>2653.871688848034</v>
+        <v>1345.14346808203</v>
       </c>
       <c r="V39" t="n">
-        <v>2454.754170910034</v>
+        <v>1146.025950144029</v>
       </c>
       <c r="W39" t="n">
-        <v>2269.431416643228</v>
+        <v>960.7031958772229</v>
       </c>
       <c r="X39" t="n">
-        <v>2114.563980882108</v>
+        <v>805.835760116103</v>
       </c>
       <c r="Y39" t="n">
-        <v>1988.078201661329</v>
+        <v>679.3499808953237</v>
       </c>
     </row>
     <row r="40">
@@ -7332,25 +7332,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J40" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K40" t="n">
-        <v>540.3500421434336</v>
+        <v>231.5799348298921</v>
       </c>
       <c r="L40" t="n">
-        <v>1053.139058957356</v>
+        <v>744.3689516438142</v>
       </c>
       <c r="M40" t="n">
-        <v>1612.343363070977</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N40" t="n">
-        <v>2151.951474057206</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O40" t="n">
-        <v>2520.961233055534</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P40" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q40" t="n">
         <v>2998.677814292588</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1367.952804907354</v>
+        <v>1631.988855816266</v>
       </c>
       <c r="C41" t="n">
-        <v>929.8103320907776</v>
+        <v>1631.988855816266</v>
       </c>
       <c r="D41" t="n">
-        <v>493.9005472652221</v>
+        <v>1196.07907099071</v>
       </c>
       <c r="E41" t="n">
-        <v>60.12580242351726</v>
+        <v>762.3043261490054</v>
       </c>
       <c r="F41" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="G41" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H41" t="n">
         <v>60.12580242351726</v>
@@ -7411,52 +7411,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J41" t="n">
-        <v>234.7606604020849</v>
+        <v>234.7606604020847</v>
       </c>
       <c r="K41" t="n">
-        <v>415.1612716583818</v>
+        <v>415.1612716583815</v>
       </c>
       <c r="L41" t="n">
-        <v>638.9641820350655</v>
+        <v>638.9641820350651</v>
       </c>
       <c r="M41" t="n">
-        <v>1383.020987026092</v>
+        <v>887.9880420333529</v>
       </c>
       <c r="N41" t="n">
-        <v>1636.074313425582</v>
+        <v>1141.041368432843</v>
       </c>
       <c r="O41" t="n">
-        <v>1875.025393797108</v>
+        <v>1379.992448804368</v>
       </c>
       <c r="P41" t="n">
-        <v>2619.082198788134</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q41" t="n">
-        <v>2772.232058826092</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R41" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S41" t="n">
-        <v>2955.611696828108</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T41" t="n">
-        <v>2802.817876167109</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U41" t="n">
-        <v>2543.711333262841</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="V41" t="n">
-        <v>2181.094383196668</v>
+        <v>2455.986773825922</v>
       </c>
       <c r="W41" t="n">
-        <v>1776.238928607701</v>
+        <v>2051.131319236955</v>
       </c>
       <c r="X41" t="n">
-        <v>1776.238928607701</v>
+        <v>1631.988855816266</v>
       </c>
       <c r="Y41" t="n">
-        <v>1367.952804907354</v>
+        <v>1631.988855816266</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G42" t="n">
-        <v>94.3841987827997</v>
+        <v>94.38419878279969</v>
       </c>
       <c r="H42" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="I42" t="n">
-        <v>86.25132408734106</v>
+        <v>86.25132408734103</v>
       </c>
       <c r="J42" t="n">
-        <v>434.0744497294277</v>
+        <v>157.9417523880325</v>
       </c>
       <c r="K42" t="n">
-        <v>556.6048103787272</v>
+        <v>280.4721130373318</v>
       </c>
       <c r="L42" t="n">
-        <v>721.3620014574019</v>
+        <v>445.2293041160065</v>
       </c>
       <c r="M42" t="n">
-        <v>913.6258723515548</v>
+        <v>637.4931750101591</v>
       </c>
       <c r="N42" t="n">
-        <v>1110.978395809273</v>
+        <v>834.8456984678771</v>
       </c>
       <c r="O42" t="n">
-        <v>1291.517398828056</v>
+        <v>1015.38470148666</v>
       </c>
       <c r="P42" t="n">
-        <v>1436.415865350293</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q42" t="n">
-        <v>1533.276652930412</v>
+        <v>1650.449431024751</v>
       </c>
       <c r="R42" t="n">
         <v>1697.561900409858</v>
@@ -7563,7 +7563,7 @@
         <v>263.3976759832894</v>
       </c>
       <c r="H43" t="n">
-        <v>129.2663519946448</v>
+        <v>129.2663519946449</v>
       </c>
       <c r="I43" t="n">
         <v>60.12580242351726</v>
@@ -7572,22 +7572,22 @@
         <v>191.6817584242374</v>
       </c>
       <c r="K43" t="n">
-        <v>399.7727096942244</v>
+        <v>540.3500421434334</v>
       </c>
       <c r="L43" t="n">
-        <v>912.5617265081465</v>
+        <v>744.3689516438142</v>
       </c>
       <c r="M43" t="n">
-        <v>1471.766030621768</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N43" t="n">
-        <v>2011.374141607996</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O43" t="n">
-        <v>2520.961233055534</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P43" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q43" t="n">
         <v>2998.677814292588</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1289.000182048402</v>
+        <v>1325.391597564435</v>
       </c>
       <c r="C44" t="n">
-        <v>850.8577092318255</v>
+        <v>887.2491247478588</v>
       </c>
       <c r="D44" t="n">
-        <v>850.8577092318255</v>
+        <v>451.3393399223033</v>
       </c>
       <c r="E44" t="n">
-        <v>417.0829643901207</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="F44" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G44" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H44" t="n">
         <v>60.12580242351726</v>
@@ -7648,10 +7648,10 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J44" t="n">
-        <v>389.5235040427557</v>
+        <v>234.7606604020847</v>
       </c>
       <c r="K44" t="n">
-        <v>569.9241152990527</v>
+        <v>569.9241152990531</v>
       </c>
       <c r="L44" t="n">
         <v>1313.980920290079</v>
@@ -7675,25 +7675,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S44" t="n">
-        <v>2955.611696828107</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="T44" t="n">
-        <v>2741.878700092718</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="U44" t="n">
-        <v>2482.77215718845</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="V44" t="n">
-        <v>2120.155207122277</v>
+        <v>2170.833631470032</v>
       </c>
       <c r="W44" t="n">
-        <v>1715.29975253331</v>
+        <v>2170.833631470032</v>
       </c>
       <c r="X44" t="n">
-        <v>1715.29975253331</v>
+        <v>1751.691168049343</v>
       </c>
       <c r="Y44" t="n">
-        <v>1715.29975253331</v>
+        <v>1751.691168049343</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I45" t="n">
-        <v>86.25132408734105</v>
+        <v>86.25132408734103</v>
       </c>
       <c r="J45" t="n">
-        <v>482.5000773542449</v>
+        <v>157.9417523880325</v>
       </c>
       <c r="K45" t="n">
-        <v>605.0304380035443</v>
+        <v>673.7775884730679</v>
       </c>
       <c r="L45" t="n">
-        <v>769.7876290822189</v>
+        <v>838.5347795517424</v>
       </c>
       <c r="M45" t="n">
-        <v>962.0514999763718</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N45" t="n">
-        <v>1159.40402343409</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O45" t="n">
-        <v>1339.943026452873</v>
+        <v>1408.690176922396</v>
       </c>
       <c r="P45" t="n">
-        <v>1484.84149297511</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q45" t="n">
         <v>1650.449431024751</v>
@@ -7806,25 +7806,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J46" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K46" t="n">
-        <v>540.3500421434336</v>
+        <v>453.7703569787436</v>
       </c>
       <c r="L46" t="n">
-        <v>1053.139058957356</v>
+        <v>966.5593737926656</v>
       </c>
       <c r="M46" t="n">
-        <v>1612.343363070977</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N46" t="n">
-        <v>2151.951474057206</v>
+        <v>2011.374141607996</v>
       </c>
       <c r="O46" t="n">
-        <v>2661.538565504743</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P46" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q46" t="n">
         <v>2998.677814292588</v>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>41.31500304752736</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>39.64570999510201</v>
+      </c>
+      <c r="R2" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>13.31876740878122</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>41.31500304752735</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="Q3" t="n">
         <v>41.31500304752734</v>
@@ -8136,25 +8136,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P4" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8221,22 +8221,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>41.31500304752734</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>41.31500304752736</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,22 +8376,22 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>41.31500304752734</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8464,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Q9" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="N9" t="n">
-        <v>13.31876740878121</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -8613,25 +8613,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>39.64570999510201</v>
+      </c>
+      <c r="Q10" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O10" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>29.51002495954003</v>
+        <v>469.1612244069331</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8768,19 +8768,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>397.2782580158949</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>69.44156613083078</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>388.0790192177324</v>
+        <v>388.079019217733</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645587</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>56.02001621636055</v>
+        <v>569.3496906411408</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5089844589315</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>545.5733194167251</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>77.11988173457394</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>278.9219165064598</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>370.9513154295739</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -9093,7 +9093,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>239.6903485172343</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9102,7 +9102,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>39.12806733010075</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>475.6068807059601</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9175,16 +9175,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>495.9631096884195</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>545.5733194167249</v>
       </c>
       <c r="Q17" t="n">
-        <v>525.2170904342643</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>397.2782580158949</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>397.2782580158939</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9333,10 +9333,10 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>134.8370665091954</v>
       </c>
       <c r="O19" t="n">
-        <v>112.0193352648885</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9412,19 +9412,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>495.9631096884195</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>256.428582656627</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>29.5100249595414</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>397.2782580158939</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>397.2782580158948</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9564,7 +9564,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>110.5452267216355</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645587</v>
@@ -9576,10 +9576,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>209.019759112256</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,25 +9640,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1037.884129318185</v>
       </c>
       <c r="M23" t="n">
-        <v>759.2112268246851</v>
+        <v>183.7478077775945</v>
       </c>
       <c r="N23" t="n">
-        <v>1008.338254547673</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>397.278258015894</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>397.2782580158951</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9804,7 +9804,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>152.2361210781526</v>
+        <v>152.2361210781532</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -9883,22 +9883,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>759.2112268246865</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1008.338254547673</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>111.6550605131188</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9962,13 +9962,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>397.2782580158949</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10047,10 +10047,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>112.0193352648894</v>
       </c>
       <c r="P28" t="n">
-        <v>39.12806733010075</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10114,22 +10114,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.065356929787</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1037.884129318185</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>640.8578688574589</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>397.2782580158949</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>370.9513154295732</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10275,7 +10275,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216361</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
@@ -10284,13 +10284,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>281.9110270470424</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10354,25 +10354,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>186.454003642383</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1012.408422629696</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1008.338254547673</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>835.9639254906147</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>397.278258015894</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>397.2782580158949</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>110.5452267216355</v>
+        <v>110.545226721636</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10594,19 +10594,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>500.0332777704425</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>510.2078026459603</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>510.9723974767235</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>81.49572290485094</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>397.2782580158949</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>69.44156613083123</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>110.5452267216355</v>
+        <v>110.5452267216361</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645587</v>
@@ -10825,10 +10825,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>56.02001621636089</v>
+        <v>569.3496906411406</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5089844589316</v>
+        <v>183.0420017039069</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>43.11462354451032</v>
+        <v>69.44156613083192</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>53.09902264877178</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -10995,13 +10995,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>281.9110270470428</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>500.0332777704425</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>545.5733194167251</v>
+        <v>469.1612244069331</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>146.4362946052711</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>278.9219165064597</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>397.2782580158948</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,10 +11220,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>135.5364869918449</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216361</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645587</v>
@@ -11238,7 +11238,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>156.3261046875463</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>156.3261046875471</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5089844589315</v>
+        <v>525.5089844589318</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>397.278258015895</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>69.44156613083101</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11463,7 +11463,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>409.5820402993877</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -11472,10 +11472,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>39.12806733010075</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>320.8827084482372</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>278.5077461125674</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H11" t="n">
         <v>271.5679831933489</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>52.0778476516715</v>
       </c>
       <c r="F14" t="n">
-        <v>198.1511619321718</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>271.5679831933489</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.17164010427806</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>34.57375155697014</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H17" t="n">
         <v>271.5679831933489</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427809</v>
       </c>
       <c r="T17" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.5154774752252</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>165.5069487206759</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23977,16 +23977,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>185.8678457657145</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427809</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5154774752252</v>
+        <v>242.6981895634358</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>324.4973448937667</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H35" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.17164010427806</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>152.3798371762355</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>17.81022731426293</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.9513258013682</v>
+        <v>15.12467745550714</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.17164010427806</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.9513258013682</v>
       </c>
       <c r="H41" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>60.32978431364688</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>75.95777356138331</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25870,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>42.13559526948961</v>
       </c>
       <c r="F44" t="n">
-        <v>341.7691481412959</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>395.9513258013682</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>50.17164010427809</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>437619.384055123</v>
+        <v>437619.3840551231</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>648302.7269683207</v>
+        <v>648302.7269683208</v>
       </c>
     </row>
     <row r="13">
@@ -26316,16 +26316,16 @@
         <v>388706.806920546</v>
       </c>
       <c r="C2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.806920546</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.806920546</v>
       </c>
       <c r="E2" t="n">
         <v>273954.7734987276</v>
       </c>
       <c r="F2" t="n">
-        <v>273954.7734987275</v>
+        <v>273954.7734987276</v>
       </c>
       <c r="G2" t="n">
         <v>273954.7734987276</v>
@@ -26337,7 +26337,7 @@
         <v>388706.8069205463</v>
       </c>
       <c r="J2" t="n">
-        <v>388706.8069205463</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="K2" t="n">
         <v>388706.8069205463</v>
@@ -26352,10 +26352,10 @@
         <v>273954.7734987276</v>
       </c>
       <c r="O2" t="n">
-        <v>273954.7734987275</v>
+        <v>273954.7734987276</v>
       </c>
       <c r="P2" t="n">
-        <v>273954.7734987275</v>
+        <v>273954.7734987276</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>498352.8259836709</v>
+        <v>498352.8259836707</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>136251.3108961175</v>
+        <v>136251.3108961174</v>
       </c>
       <c r="J3" t="n">
-        <v>10809.8226573672</v>
+        <v>10809.8226573673</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>299855.2806251332</v>
       </c>
       <c r="E4" t="n">
-        <v>50871.66601070165</v>
+        <v>50871.66601070171</v>
       </c>
       <c r="F4" t="n">
-        <v>50871.66601070165</v>
+        <v>50871.66601070171</v>
       </c>
       <c r="G4" t="n">
-        <v>50871.66601070165</v>
+        <v>50871.66601070169</v>
       </c>
       <c r="H4" t="n">
-        <v>50871.66601070166</v>
+        <v>50871.66601070171</v>
       </c>
       <c r="I4" t="n">
         <v>99561.61401273991</v>
       </c>
       <c r="J4" t="n">
-        <v>99561.61401273987</v>
+        <v>99561.61401273993</v>
       </c>
       <c r="K4" t="n">
-        <v>99561.61401273987</v>
+        <v>99561.61401273994</v>
       </c>
       <c r="L4" t="n">
-        <v>99561.6140127399</v>
+        <v>99561.61401273996</v>
       </c>
       <c r="M4" t="n">
-        <v>50871.66601070166</v>
+        <v>50871.6660107017</v>
       </c>
       <c r="N4" t="n">
-        <v>50871.66601070167</v>
+        <v>50871.66601070169</v>
       </c>
       <c r="O4" t="n">
-        <v>50871.66601070167</v>
+        <v>50871.66601070171</v>
       </c>
       <c r="P4" t="n">
-        <v>50871.66601070166</v>
+        <v>50871.66601070169</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>36139.55218528966</v>
       </c>
       <c r="E5" t="n">
-        <v>53463.84704971768</v>
+        <v>53463.84704971767</v>
       </c>
       <c r="F5" t="n">
         <v>53463.84704971767</v>
@@ -26490,7 +26490,7 @@
         <v>53463.84704971767</v>
       </c>
       <c r="I5" t="n">
-        <v>84616.25585716027</v>
+        <v>84616.25585716026</v>
       </c>
       <c r="J5" t="n">
         <v>84616.25585716026</v>
@@ -26505,10 +26505,10 @@
         <v>53463.84704971767</v>
       </c>
       <c r="N5" t="n">
-        <v>53463.84704971768</v>
+        <v>53463.84704971767</v>
       </c>
       <c r="O5" t="n">
-        <v>53463.84704971768</v>
+        <v>53463.84704971767</v>
       </c>
       <c r="P5" t="n">
         <v>53463.84704971767</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38866.36634382671</v>
+        <v>38866.36634382665</v>
       </c>
       <c r="C6" t="n">
-        <v>52711.97411012331</v>
+        <v>52711.97411012319</v>
       </c>
       <c r="D6" t="n">
-        <v>52711.97411012325</v>
+        <v>52711.97411012319</v>
       </c>
       <c r="E6" t="n">
-        <v>-328733.5655453627</v>
+        <v>-329129.2622123342</v>
       </c>
       <c r="F6" t="n">
-        <v>169619.2604383082</v>
+        <v>169223.5637713364</v>
       </c>
       <c r="G6" t="n">
-        <v>169619.2604383083</v>
+        <v>169223.5637713365</v>
       </c>
       <c r="H6" t="n">
-        <v>169619.2604383083</v>
+        <v>169223.5637713364</v>
       </c>
       <c r="I6" t="n">
-        <v>68277.62615452864</v>
+        <v>68277.6261545287</v>
       </c>
       <c r="J6" t="n">
-        <v>193719.114393279</v>
+        <v>193719.1143932787</v>
       </c>
       <c r="K6" t="n">
-        <v>204528.9370506462</v>
+        <v>204528.9370506461</v>
       </c>
       <c r="L6" t="n">
         <v>204528.9370506461</v>
       </c>
       <c r="M6" t="n">
-        <v>120306.1792178922</v>
+        <v>119910.4825509204</v>
       </c>
       <c r="N6" t="n">
-        <v>169619.2604383082</v>
+        <v>169223.5637713365</v>
       </c>
       <c r="O6" t="n">
-        <v>169619.2604383082</v>
+        <v>169223.5637713364</v>
       </c>
       <c r="P6" t="n">
-        <v>169619.2604383082</v>
+        <v>169223.5637713365</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="F3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="G3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="H3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="I3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="J3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="K3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="L3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="M3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="N3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="O3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="P3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231448</v>
       </c>
     </row>
     <row r="4">
@@ -26801,7 +26801,7 @@
         <v>751.5725302939658</v>
       </c>
       <c r="F4" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939658</v>
       </c>
       <c r="G4" t="n">
         <v>751.5725302939657</v>
@@ -26825,10 +26825,10 @@
         <v>751.5725302939657</v>
       </c>
       <c r="N4" t="n">
-        <v>751.5725302939658</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="O4" t="n">
-        <v>751.5725302939658</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="P4" t="n">
         <v>751.5725302939657</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>512.3751448592533</v>
+        <v>512.3751448592531</v>
       </c>
       <c r="J4" t="n">
-        <v>41.31500304752717</v>
+        <v>41.31500304752756</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27460,13 +27460,13 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>69.00164186746204</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D3" t="n">
         <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F3" t="n">
         <v>82.55</v>
@@ -27514,13 +27514,13 @@
         <v>87.56185418517705</v>
       </c>
       <c r="U3" t="n">
-        <v>133.258178482504</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V3" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W3" t="n">
-        <v>183.4695267241379</v>
+        <v>147.0792720398758</v>
       </c>
       <c r="X3" t="n">
         <v>153.3187614035088</v>
@@ -27554,7 +27554,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>102.1128978822671</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27587,25 +27587,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>202.1056489098019</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>234.3336676918984</v>
       </c>
       <c r="V4" t="n">
-        <v>247.6956983640117</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>183.8304709315055</v>
       </c>
     </row>
     <row r="5">
@@ -27697,13 +27697,13 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F6" t="n">
         <v>82.55</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>21.5058801285734</v>
+        <v>26.43062849183867</v>
       </c>
       <c r="T6" t="n">
-        <v>87.56185418517705</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
-        <v>133.258178482504</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V6" t="n">
-        <v>160.7360880743585</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
         <v>183.4695267241379</v>
@@ -27776,13 +27776,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>134.4458397173452</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -27794,7 +27794,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>72.58673813049116</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>202.1056489098019</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -27842,7 +27842,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>183.8304709315055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27934,16 +27934,16 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>69.00164186746204</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>52.82438291738493</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G9" t="n">
         <v>84.53123883647795</v>
@@ -27991,13 +27991,13 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>112.0037583559815</v>
+        <v>116.9285067192467</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>153.5101778475351</v>
       </c>
       <c r="C10" t="n">
-        <v>129.52109135408</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -28025,13 +28025,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>122.6203591769033</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>46.45834668554406</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>207.0303972730672</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>234.3336676918984</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -28079,7 +28079,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>183.8304709315055</v>
       </c>
     </row>
     <row r="11">
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H11" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786695</v>
       </c>
       <c r="I11" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J11" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K11" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L11" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M11" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N11" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O11" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P11" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q11" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211698</v>
       </c>
       <c r="R11" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651758</v>
       </c>
       <c r="S11" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372327</v>
       </c>
       <c r="T11" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656546</v>
       </c>
       <c r="U11" t="n">
         <v>0.1146021809280465</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.766469656996953</v>
       </c>
       <c r="H12" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260047</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J12" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110248</v>
       </c>
       <c r="K12" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L12" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M12" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N12" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O12" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119022</v>
       </c>
       <c r="P12" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385667</v>
       </c>
       <c r="R12" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424943</v>
       </c>
       <c r="S12" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T12" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874693</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417365</v>
       </c>
       <c r="H13" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771079</v>
       </c>
       <c r="I13" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765513</v>
       </c>
       <c r="J13" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K13" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884899</v>
       </c>
       <c r="L13" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440508</v>
       </c>
       <c r="M13" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N13" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028688</v>
       </c>
       <c r="O13" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429928</v>
       </c>
       <c r="P13" t="n">
-        <v>77.71742202824787</v>
+        <v>77.7174220282478</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479486</v>
       </c>
       <c r="R13" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S13" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T13" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H14" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786695</v>
       </c>
       <c r="I14" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J14" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K14" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L14" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M14" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N14" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O14" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P14" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211698</v>
       </c>
       <c r="R14" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651758</v>
       </c>
       <c r="S14" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372327</v>
       </c>
       <c r="T14" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656546</v>
       </c>
       <c r="U14" t="n">
         <v>0.1146021809280465</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.766469656996953</v>
       </c>
       <c r="H15" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260047</v>
       </c>
       <c r="I15" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J15" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110248</v>
       </c>
       <c r="K15" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L15" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M15" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N15" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O15" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119022</v>
       </c>
       <c r="P15" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385667</v>
       </c>
       <c r="R15" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424943</v>
       </c>
       <c r="S15" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T15" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874693</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417365</v>
       </c>
       <c r="H16" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771079</v>
       </c>
       <c r="I16" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765513</v>
       </c>
       <c r="J16" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K16" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884899</v>
       </c>
       <c r="L16" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440508</v>
       </c>
       <c r="M16" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N16" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028688</v>
       </c>
       <c r="O16" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429928</v>
       </c>
       <c r="P16" t="n">
-        <v>77.71742202824787</v>
+        <v>77.7174220282478</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479486</v>
       </c>
       <c r="R16" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S16" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T16" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H17" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786695</v>
       </c>
       <c r="I17" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J17" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K17" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L17" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M17" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N17" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O17" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P17" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211698</v>
       </c>
       <c r="R17" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651758</v>
       </c>
       <c r="S17" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372327</v>
       </c>
       <c r="T17" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656546</v>
       </c>
       <c r="U17" t="n">
         <v>0.1146021809280465</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.766469656996953</v>
       </c>
       <c r="H18" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260047</v>
       </c>
       <c r="I18" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J18" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110248</v>
       </c>
       <c r="K18" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L18" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M18" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N18" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O18" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119022</v>
       </c>
       <c r="P18" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385667</v>
       </c>
       <c r="R18" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424943</v>
       </c>
       <c r="S18" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T18" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874693</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417365</v>
       </c>
       <c r="H19" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771079</v>
       </c>
       <c r="I19" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765513</v>
       </c>
       <c r="J19" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K19" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884899</v>
       </c>
       <c r="L19" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440508</v>
       </c>
       <c r="M19" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N19" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028688</v>
       </c>
       <c r="O19" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429928</v>
       </c>
       <c r="P19" t="n">
-        <v>77.71742202824787</v>
+        <v>77.7174220282478</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479486</v>
       </c>
       <c r="R19" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S19" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T19" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H20" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786695</v>
       </c>
       <c r="I20" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J20" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K20" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L20" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M20" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N20" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O20" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P20" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211698</v>
       </c>
       <c r="R20" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651758</v>
       </c>
       <c r="S20" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372327</v>
       </c>
       <c r="T20" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656546</v>
       </c>
       <c r="U20" t="n">
         <v>0.1146021809280465</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.766469656996953</v>
       </c>
       <c r="H21" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260047</v>
       </c>
       <c r="I21" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J21" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110248</v>
       </c>
       <c r="K21" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L21" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M21" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N21" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O21" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119022</v>
       </c>
       <c r="P21" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385667</v>
       </c>
       <c r="R21" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424943</v>
       </c>
       <c r="S21" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T21" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874693</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417365</v>
       </c>
       <c r="H22" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771079</v>
       </c>
       <c r="I22" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765513</v>
       </c>
       <c r="J22" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K22" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884899</v>
       </c>
       <c r="L22" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440508</v>
       </c>
       <c r="M22" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N22" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028688</v>
       </c>
       <c r="O22" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429928</v>
       </c>
       <c r="P22" t="n">
-        <v>77.71742202824787</v>
+        <v>77.7174220282478</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479486</v>
       </c>
       <c r="R22" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S22" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T22" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H23" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786695</v>
       </c>
       <c r="I23" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K23" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L23" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M23" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N23" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O23" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P23" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q23" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211698</v>
       </c>
       <c r="R23" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651758</v>
       </c>
       <c r="S23" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372327</v>
       </c>
       <c r="T23" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656546</v>
       </c>
       <c r="U23" t="n">
         <v>0.1146021809280465</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.766469656996953</v>
       </c>
       <c r="H24" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260047</v>
       </c>
       <c r="I24" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J24" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110248</v>
       </c>
       <c r="K24" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L24" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M24" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N24" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O24" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119022</v>
       </c>
       <c r="P24" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385667</v>
       </c>
       <c r="R24" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424943</v>
       </c>
       <c r="S24" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T24" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874693</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417365</v>
       </c>
       <c r="H25" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771079</v>
       </c>
       <c r="I25" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765513</v>
       </c>
       <c r="J25" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K25" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884899</v>
       </c>
       <c r="L25" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440508</v>
       </c>
       <c r="M25" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N25" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028688</v>
       </c>
       <c r="O25" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429928</v>
       </c>
       <c r="P25" t="n">
-        <v>77.71742202824787</v>
+        <v>77.7174220282478</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479486</v>
       </c>
       <c r="R25" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S25" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T25" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H26" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786695</v>
       </c>
       <c r="I26" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J26" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K26" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L26" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M26" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N26" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O26" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P26" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q26" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211698</v>
       </c>
       <c r="R26" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651758</v>
       </c>
       <c r="S26" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372327</v>
       </c>
       <c r="T26" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656546</v>
       </c>
       <c r="U26" t="n">
         <v>0.1146021809280465</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.766469656996953</v>
       </c>
       <c r="H27" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260047</v>
       </c>
       <c r="I27" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J27" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110248</v>
       </c>
       <c r="K27" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L27" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M27" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N27" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O27" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119022</v>
       </c>
       <c r="P27" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q27" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385667</v>
       </c>
       <c r="R27" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424943</v>
       </c>
       <c r="S27" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T27" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874693</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417365</v>
       </c>
       <c r="H28" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771079</v>
       </c>
       <c r="I28" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765513</v>
       </c>
       <c r="J28" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K28" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884899</v>
       </c>
       <c r="L28" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440508</v>
       </c>
       <c r="M28" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N28" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028688</v>
       </c>
       <c r="O28" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429928</v>
       </c>
       <c r="P28" t="n">
-        <v>77.71742202824787</v>
+        <v>77.7174220282478</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479486</v>
       </c>
       <c r="R28" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S28" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T28" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H29" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786695</v>
       </c>
       <c r="I29" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J29" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K29" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L29" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M29" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N29" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O29" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P29" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q29" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211698</v>
       </c>
       <c r="R29" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651758</v>
       </c>
       <c r="S29" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372327</v>
       </c>
       <c r="T29" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656546</v>
       </c>
       <c r="U29" t="n">
         <v>0.1146021809280465</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.766469656996953</v>
       </c>
       <c r="H30" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260047</v>
       </c>
       <c r="I30" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J30" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110248</v>
       </c>
       <c r="K30" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L30" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M30" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N30" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O30" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119022</v>
       </c>
       <c r="P30" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q30" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385667</v>
       </c>
       <c r="R30" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424943</v>
       </c>
       <c r="S30" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T30" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874693</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417365</v>
       </c>
       <c r="H31" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771079</v>
       </c>
       <c r="I31" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765513</v>
       </c>
       <c r="J31" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K31" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884899</v>
       </c>
       <c r="L31" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440508</v>
       </c>
       <c r="M31" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N31" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028688</v>
       </c>
       <c r="O31" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429928</v>
       </c>
       <c r="P31" t="n">
-        <v>77.71742202824787</v>
+        <v>77.7174220282478</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479486</v>
       </c>
       <c r="R31" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S31" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T31" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H32" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786695</v>
       </c>
       <c r="I32" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J32" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K32" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L32" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M32" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N32" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O32" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P32" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q32" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211698</v>
       </c>
       <c r="R32" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651758</v>
       </c>
       <c r="S32" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372327</v>
       </c>
       <c r="T32" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656546</v>
       </c>
       <c r="U32" t="n">
         <v>0.1146021809280465</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.766469656996953</v>
       </c>
       <c r="H33" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260047</v>
       </c>
       <c r="I33" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J33" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110248</v>
       </c>
       <c r="K33" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L33" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M33" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N33" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O33" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119022</v>
       </c>
       <c r="P33" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q33" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385667</v>
       </c>
       <c r="R33" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424943</v>
       </c>
       <c r="S33" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T33" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874693</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417365</v>
       </c>
       <c r="H34" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771079</v>
       </c>
       <c r="I34" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765513</v>
       </c>
       <c r="J34" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K34" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884899</v>
       </c>
       <c r="L34" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440508</v>
       </c>
       <c r="M34" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N34" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028688</v>
       </c>
       <c r="O34" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429928</v>
       </c>
       <c r="P34" t="n">
-        <v>77.71742202824787</v>
+        <v>77.7174220282478</v>
       </c>
       <c r="Q34" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479486</v>
       </c>
       <c r="R34" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S34" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T34" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H35" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786695</v>
       </c>
       <c r="I35" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J35" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K35" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L35" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M35" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N35" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O35" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P35" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211698</v>
       </c>
       <c r="R35" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651758</v>
       </c>
       <c r="S35" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372327</v>
       </c>
       <c r="T35" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656546</v>
       </c>
       <c r="U35" t="n">
         <v>0.1146021809280465</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.766469656996953</v>
       </c>
       <c r="H36" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260047</v>
       </c>
       <c r="I36" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J36" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110248</v>
       </c>
       <c r="K36" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L36" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M36" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N36" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O36" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119022</v>
       </c>
       <c r="P36" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385667</v>
       </c>
       <c r="R36" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424943</v>
       </c>
       <c r="S36" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T36" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874693</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417365</v>
       </c>
       <c r="H37" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771079</v>
       </c>
       <c r="I37" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765513</v>
       </c>
       <c r="J37" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K37" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884899</v>
       </c>
       <c r="L37" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440508</v>
       </c>
       <c r="M37" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N37" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028688</v>
       </c>
       <c r="O37" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429928</v>
       </c>
       <c r="P37" t="n">
-        <v>77.71742202824787</v>
+        <v>77.7174220282478</v>
       </c>
       <c r="Q37" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479486</v>
       </c>
       <c r="R37" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S37" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T37" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H38" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786695</v>
       </c>
       <c r="I38" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J38" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K38" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L38" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M38" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N38" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O38" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P38" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q38" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211698</v>
       </c>
       <c r="R38" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651758</v>
       </c>
       <c r="S38" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372327</v>
       </c>
       <c r="T38" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656546</v>
       </c>
       <c r="U38" t="n">
         <v>0.1146021809280465</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.766469656996953</v>
       </c>
       <c r="H39" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260047</v>
       </c>
       <c r="I39" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J39" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110248</v>
       </c>
       <c r="K39" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L39" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M39" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N39" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O39" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119022</v>
       </c>
       <c r="P39" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q39" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385667</v>
       </c>
       <c r="R39" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424943</v>
       </c>
       <c r="S39" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T39" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874693</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417365</v>
       </c>
       <c r="H40" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771079</v>
       </c>
       <c r="I40" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765513</v>
       </c>
       <c r="J40" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K40" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884899</v>
       </c>
       <c r="L40" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440508</v>
       </c>
       <c r="M40" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N40" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028688</v>
       </c>
       <c r="O40" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429928</v>
       </c>
       <c r="P40" t="n">
-        <v>77.71742202824787</v>
+        <v>77.7174220282478</v>
       </c>
       <c r="Q40" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479486</v>
       </c>
       <c r="R40" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S40" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T40" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H41" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786695</v>
       </c>
       <c r="I41" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J41" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K41" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L41" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M41" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N41" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O41" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P41" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211698</v>
       </c>
       <c r="R41" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651758</v>
       </c>
       <c r="S41" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372327</v>
       </c>
       <c r="T41" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656546</v>
       </c>
       <c r="U41" t="n">
         <v>0.1146021809280465</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.766469656996953</v>
       </c>
       <c r="H42" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260047</v>
       </c>
       <c r="I42" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J42" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110248</v>
       </c>
       <c r="K42" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L42" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M42" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N42" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O42" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119022</v>
       </c>
       <c r="P42" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q42" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385667</v>
       </c>
       <c r="R42" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424943</v>
       </c>
       <c r="S42" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T42" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874693</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417365</v>
       </c>
       <c r="H43" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771079</v>
       </c>
       <c r="I43" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765513</v>
       </c>
       <c r="J43" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K43" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884899</v>
       </c>
       <c r="L43" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440508</v>
       </c>
       <c r="M43" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N43" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028688</v>
       </c>
       <c r="O43" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429928</v>
       </c>
       <c r="P43" t="n">
-        <v>77.71742202824787</v>
+        <v>77.7174220282478</v>
       </c>
       <c r="Q43" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479486</v>
       </c>
       <c r="R43" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S43" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T43" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H44" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786695</v>
       </c>
       <c r="I44" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J44" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K44" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L44" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M44" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N44" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O44" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P44" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q44" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211698</v>
       </c>
       <c r="R44" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651758</v>
       </c>
       <c r="S44" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372327</v>
       </c>
       <c r="T44" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656546</v>
       </c>
       <c r="U44" t="n">
         <v>0.1146021809280465</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.766469656996953</v>
       </c>
       <c r="H45" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260047</v>
       </c>
       <c r="I45" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J45" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110248</v>
       </c>
       <c r="K45" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L45" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M45" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N45" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O45" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119022</v>
       </c>
       <c r="P45" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385667</v>
       </c>
       <c r="R45" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424943</v>
       </c>
       <c r="S45" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T45" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874693</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417365</v>
       </c>
       <c r="H46" t="n">
-        <v>5.713141817771083</v>
+        <v>5.713141817771079</v>
       </c>
       <c r="I46" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765513</v>
       </c>
       <c r="J46" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K46" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884899</v>
       </c>
       <c r="L46" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440508</v>
       </c>
       <c r="M46" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N46" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028688</v>
       </c>
       <c r="O46" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429928</v>
       </c>
       <c r="P46" t="n">
-        <v>77.71742202824787</v>
+        <v>77.7174220282478</v>
       </c>
       <c r="Q46" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479486</v>
       </c>
       <c r="R46" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S46" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T46" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>41.31500304752736</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>39.64570999510201</v>
+      </c>
+      <c r="R2" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>13.31876740878122</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>41.31500304752735</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="Q3" t="n">
         <v>41.31500304752734</v>
@@ -34856,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P4" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>41.31500304752734</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>41.31500304752736</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>41.31500304752734</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35184,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Q9" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="N9" t="n">
-        <v>13.31876740878121</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -35333,25 +35333,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>39.64570999510201</v>
+      </c>
+      <c r="Q10" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O10" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372506</v>
       </c>
       <c r="J11" t="n">
-        <v>561.2351601166644</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K11" t="n">
-        <v>211.7328646123652</v>
+        <v>651.3840640597582</v>
       </c>
       <c r="L11" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M11" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N11" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O11" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P11" t="n">
         <v>205.9992108772408</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204421</v>
       </c>
       <c r="J12" t="n">
-        <v>400.2512659261655</v>
+        <v>72.41457404110247</v>
       </c>
       <c r="K12" t="n">
-        <v>123.7680410598985</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L12" t="n">
-        <v>166.4214051299746</v>
+        <v>563.6996631458694</v>
       </c>
       <c r="M12" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N12" t="n">
-        <v>268.7875494214552</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O12" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119021</v>
       </c>
       <c r="P12" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q12" t="n">
         <v>97.83917937385672</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>132.8848040411315</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K13" t="n">
-        <v>74.65639307884908</v>
+        <v>74.65639307884899</v>
       </c>
       <c r="L13" t="n">
-        <v>483.6134990621375</v>
+        <v>483.6134990621381</v>
       </c>
       <c r="M13" t="n">
-        <v>564.8528324380012</v>
+        <v>564.852832438001</v>
       </c>
       <c r="N13" t="n">
         <v>545.0586979658876</v>
       </c>
       <c r="O13" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P13" t="n">
         <v>428.7344866447547</v>
@@ -35591,7 +35591,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R13" t="n">
-        <v>7.689198871994801</v>
+        <v>7.68919887199478</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372506</v>
       </c>
       <c r="J14" t="n">
-        <v>561.2351601166644</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K14" t="n">
-        <v>238.2428558691857</v>
+        <v>751.5725302939659</v>
       </c>
       <c r="L14" t="n">
-        <v>751.5725302939657</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M14" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N14" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O14" t="n">
         <v>241.3647276480051</v>
       </c>
       <c r="P14" t="n">
-        <v>205.9992108772408</v>
+        <v>751.5725302939659</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.69682832117</v>
+        <v>231.8167100557439</v>
       </c>
       <c r="R14" t="n">
-        <v>260.8486822662721</v>
+        <v>89.98599059651769</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J15" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110248</v>
       </c>
       <c r="K15" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L15" t="n">
-        <v>445.3433216364343</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M15" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N15" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O15" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P15" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.83917937385672</v>
+        <v>468.7904948034306</v>
       </c>
       <c r="R15" t="n">
-        <v>165.9446944236836</v>
+        <v>47.58835291424953</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>132.8848040411314</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K16" t="n">
-        <v>352.1901855749456</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L16" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M16" t="n">
-        <v>564.8528324380011</v>
+        <v>340.4180625906766</v>
       </c>
       <c r="N16" t="n">
-        <v>545.0586979658879</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O16" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P16" t="n">
-        <v>116.8454893583485</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q16" t="n">
         <v>223.6992063869488</v>
       </c>
       <c r="R16" t="n">
-        <v>7.689198871994801</v>
+        <v>7.68919887199478</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372506</v>
       </c>
       <c r="J17" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K17" t="n">
-        <v>182.2228396528252</v>
+        <v>657.8297203587852</v>
       </c>
       <c r="L17" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M17" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N17" t="n">
+        <v>255.6094206055459</v>
+      </c>
+      <c r="O17" t="n">
+        <v>241.3647276480051</v>
+      </c>
+      <c r="P17" t="n">
         <v>751.5725302939657</v>
       </c>
-      <c r="O17" t="n">
-        <v>241.3647276480053</v>
-      </c>
-      <c r="P17" t="n">
-        <v>205.9992108772408</v>
-      </c>
       <c r="Q17" t="n">
-        <v>679.9139187554342</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R17" t="n">
         <v>260.8486822662721</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J18" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110247</v>
       </c>
       <c r="K18" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L18" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M18" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N18" t="n">
-        <v>199.3459832906243</v>
+        <v>596.6242413065191</v>
       </c>
       <c r="O18" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119021</v>
       </c>
       <c r="P18" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q18" t="n">
-        <v>495.1174373897506</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R18" t="n">
         <v>47.58835291424953</v>
@@ -36044,19 +36044,19 @@
         <v>132.8848040411314</v>
       </c>
       <c r="K19" t="n">
-        <v>352.1901855749456</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L19" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M19" t="n">
-        <v>564.8528324380011</v>
+        <v>564.8528324380009</v>
       </c>
       <c r="N19" t="n">
-        <v>545.0586979658879</v>
+        <v>233.1697006794823</v>
       </c>
       <c r="O19" t="n">
-        <v>202.8454385191876</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P19" t="n">
         <v>428.7344866447547</v>
@@ -36065,7 +36065,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R19" t="n">
-        <v>7.689198871994801</v>
+        <v>7.68919887199478</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372506</v>
       </c>
       <c r="J20" t="n">
-        <v>561.2351601166644</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K20" t="n">
-        <v>182.2228396528252</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L20" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350338</v>
       </c>
       <c r="M20" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N20" t="n">
-        <v>751.5725302939657</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O20" t="n">
-        <v>497.7933103046321</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P20" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367822</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R20" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J21" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110247</v>
       </c>
       <c r="K21" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L21" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M21" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N21" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O21" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119022</v>
       </c>
       <c r="P21" t="n">
-        <v>543.640345412093</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.83917937385672</v>
+        <v>495.1174373897516</v>
       </c>
       <c r="R21" t="n">
         <v>47.58835291424953</v>
@@ -36281,28 +36281,28 @@
         <v>132.8848040411314</v>
       </c>
       <c r="K22" t="n">
-        <v>352.1901855749456</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L22" t="n">
-        <v>206.0797065660406</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M22" t="n">
-        <v>564.8528324380011</v>
+        <v>564.8528324380009</v>
       </c>
       <c r="N22" t="n">
-        <v>545.0586979658876</v>
+        <v>545.0586979658874</v>
       </c>
       <c r="O22" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055934</v>
       </c>
       <c r="P22" t="n">
-        <v>428.7344866447547</v>
+        <v>286.7371811405037</v>
       </c>
       <c r="Q22" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R22" t="n">
-        <v>7.689198871994801</v>
+        <v>7.68919887199478</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372506</v>
       </c>
       <c r="J23" t="n">
-        <v>561.2351601166644</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K23" t="n">
-        <v>1025.000912337854</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L23" t="n">
-        <v>226.0635458350341</v>
+        <v>1263.947675153219</v>
       </c>
       <c r="M23" t="n">
-        <v>1010.750479348209</v>
+        <v>435.2870603011179</v>
       </c>
       <c r="N23" t="n">
-        <v>1263.947675153219</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O23" t="n">
         <v>241.3647276480051</v>
       </c>
       <c r="P23" t="n">
-        <v>205.9992108772412</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q23" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R23" t="n">
         <v>260.8486822662717</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204421</v>
       </c>
       <c r="J24" t="n">
-        <v>72.41457404110253</v>
+        <v>72.41457404110247</v>
       </c>
       <c r="K24" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L24" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4841882120081</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N24" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O24" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119022</v>
       </c>
       <c r="P24" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.83917937385672</v>
+        <v>495.1174373897518</v>
       </c>
       <c r="R24" t="n">
         <v>47.58835291424953</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>132.8848040411315</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K25" t="n">
-        <v>352.1901855749456</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L25" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M25" t="n">
-        <v>252.963835151595</v>
+        <v>252.9638351515955</v>
       </c>
       <c r="N25" t="n">
         <v>545.0586979658876</v>
       </c>
       <c r="O25" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P25" t="n">
         <v>428.7344866447547</v>
@@ -36539,7 +36539,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R25" t="n">
-        <v>7.689198871994801</v>
+        <v>7.68919887199478</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372506</v>
       </c>
       <c r="J26" t="n">
-        <v>561.2351601166644</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K26" t="n">
-        <v>1025.000912337854</v>
+        <v>1025.000912337853</v>
       </c>
       <c r="L26" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M26" t="n">
-        <v>251.5392525235236</v>
+        <v>1010.75047934821</v>
       </c>
       <c r="N26" t="n">
-        <v>255.6094206055459</v>
+        <v>1263.947675153219</v>
       </c>
       <c r="O26" t="n">
-        <v>1231.445198931143</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P26" t="n">
-        <v>1042.675852123096</v>
+        <v>205.9992108772403</v>
       </c>
       <c r="Q26" t="n">
-        <v>266.3518888342887</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R26" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662717</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204421</v>
       </c>
       <c r="J27" t="n">
-        <v>72.41457404110255</v>
+        <v>72.41457404110247</v>
       </c>
       <c r="K27" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L27" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M27" t="n">
-        <v>194.205930196114</v>
+        <v>591.4841882120088</v>
       </c>
       <c r="N27" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O27" t="n">
-        <v>579.6408873277965</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P27" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q27" t="n">
         <v>97.83917937385672</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>132.8848040411315</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K28" t="n">
-        <v>352.1901855749456</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L28" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M28" t="n">
-        <v>564.8528324380011</v>
+        <v>564.8528324380009</v>
       </c>
       <c r="N28" t="n">
-        <v>545.0586979658879</v>
+        <v>545.0586979658874</v>
       </c>
       <c r="O28" t="n">
-        <v>514.7344358055939</v>
+        <v>202.8454385191885</v>
       </c>
       <c r="P28" t="n">
-        <v>116.8454893583485</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q28" t="n">
         <v>223.6992063869488</v>
       </c>
       <c r="R28" t="n">
-        <v>7.689198871994801</v>
+        <v>7.68919887199478</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372506</v>
       </c>
       <c r="J29" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K29" t="n">
-        <v>1024.288196582612</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L29" t="n">
-        <v>226.0635458350341</v>
+        <v>1263.947675153219</v>
       </c>
       <c r="M29" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N29" t="n">
-        <v>255.6094206055461</v>
+        <v>896.4672894630046</v>
       </c>
       <c r="O29" t="n">
         <v>1231.445198931143</v>
       </c>
       <c r="P29" t="n">
-        <v>1042.675852123096</v>
+        <v>205.9992108772403</v>
       </c>
       <c r="Q29" t="n">
         <v>706.7158040369222</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>52.71635840836504</v>
+        <v>26.38941582204421</v>
       </c>
       <c r="J30" t="n">
-        <v>72.41457404110255</v>
+        <v>72.41457404110247</v>
       </c>
       <c r="K30" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L30" t="n">
-        <v>166.4214051299746</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M30" t="n">
-        <v>194.205930196114</v>
+        <v>591.4841882120088</v>
       </c>
       <c r="N30" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O30" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P30" t="n">
-        <v>517.3134028257723</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q30" t="n">
         <v>97.83917937385672</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>132.8848040411315</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K31" t="n">
-        <v>352.1901855749456</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L31" t="n">
-        <v>517.9687038524467</v>
+        <v>206.0797065660412</v>
       </c>
       <c r="M31" t="n">
-        <v>564.8528324380011</v>
+        <v>564.852832438001</v>
       </c>
       <c r="N31" t="n">
-        <v>545.0586979658879</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O31" t="n">
-        <v>372.7371303013415</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P31" t="n">
         <v>428.7344866447547</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R31" t="n">
-        <v>7.689198871994801</v>
+        <v>7.68919887199478</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372506</v>
       </c>
       <c r="J32" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K32" t="n">
-        <v>1025.000912337854</v>
+        <v>1025.000912337853</v>
       </c>
       <c r="L32" t="n">
-        <v>226.0635458350341</v>
+        <v>412.5175494774169</v>
       </c>
       <c r="M32" t="n">
-        <v>251.5392525235234</v>
+        <v>1263.947675153219</v>
       </c>
       <c r="N32" t="n">
-        <v>255.6094206055461</v>
+        <v>1263.947675153219</v>
       </c>
       <c r="O32" t="n">
-        <v>1231.445198931143</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P32" t="n">
-        <v>1041.963136367855</v>
+        <v>205.9992108772403</v>
       </c>
       <c r="Q32" t="n">
-        <v>706.7158040369222</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R32" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662717</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204421</v>
       </c>
       <c r="J33" t="n">
-        <v>72.41457404110253</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K33" t="n">
-        <v>521.0462990757924</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L33" t="n">
-        <v>166.4214051299746</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M33" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N33" t="n">
-        <v>199.3459832906244</v>
+        <v>596.6242413065191</v>
       </c>
       <c r="O33" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P33" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q33" t="n">
         <v>97.83917937385672</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>132.8848040411315</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K34" t="n">
-        <v>352.1901855749456</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L34" t="n">
-        <v>206.0797065660406</v>
+        <v>206.0797065660411</v>
       </c>
       <c r="M34" t="n">
-        <v>564.8528324380011</v>
+        <v>564.852832438001</v>
       </c>
       <c r="N34" t="n">
         <v>545.0586979658876</v>
       </c>
       <c r="O34" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P34" t="n">
         <v>428.7344866447547</v>
@@ -37250,7 +37250,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R34" t="n">
-        <v>7.689198871994801</v>
+        <v>7.68919887199478</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372506</v>
       </c>
       <c r="J35" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K35" t="n">
-        <v>182.2228396528252</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L35" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350338</v>
       </c>
       <c r="M35" t="n">
-        <v>251.5392525235234</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="N35" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055457</v>
       </c>
       <c r="O35" t="n">
-        <v>751.5725302939657</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P35" t="n">
-        <v>716.9716083539643</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.69682832117</v>
+        <v>236.1925512260209</v>
       </c>
       <c r="R35" t="n">
         <v>260.8486822662721</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.38941582204416</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J36" t="n">
-        <v>400.2512659261654</v>
+        <v>72.41457404110247</v>
       </c>
       <c r="K36" t="n">
-        <v>123.7680410598985</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L36" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M36" t="n">
-        <v>194.205930196114</v>
+        <v>591.4841882120088</v>
       </c>
       <c r="N36" t="n">
         <v>199.3459832906242</v>
       </c>
       <c r="O36" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119021</v>
       </c>
       <c r="P36" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.83917937385695</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R36" t="n">
-        <v>117.0299190450805</v>
+        <v>47.58835291424953</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,19 +37466,19 @@
         <v>132.8848040411314</v>
       </c>
       <c r="K37" t="n">
-        <v>352.1901855749456</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L37" t="n">
-        <v>206.0797065660406</v>
+        <v>206.0797065660412</v>
       </c>
       <c r="M37" t="n">
-        <v>564.8528324380011</v>
+        <v>564.852832438001</v>
       </c>
       <c r="N37" t="n">
         <v>545.0586979658876</v>
       </c>
       <c r="O37" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P37" t="n">
         <v>428.7344866447547</v>
@@ -37487,7 +37487,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R37" t="n">
-        <v>7.689198871994801</v>
+        <v>7.68919887199478</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,22 +37539,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372506</v>
       </c>
       <c r="J38" t="n">
-        <v>561.2351601166644</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K38" t="n">
-        <v>238.2428558691861</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="L38" t="n">
-        <v>751.5725302939658</v>
+        <v>409.1055475389408</v>
       </c>
       <c r="M38" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N38" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O38" t="n">
         <v>241.3647276480051</v>
@@ -37566,7 +37566,7 @@
         <v>154.69682832117</v>
       </c>
       <c r="R38" t="n">
-        <v>260.8486822662721</v>
+        <v>89.98599059651769</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>52.71635840836507</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J39" t="n">
         <v>400.2512659261654</v>
       </c>
       <c r="K39" t="n">
-        <v>123.7680410598985</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L39" t="n">
         <v>166.4214051299743</v>
       </c>
       <c r="M39" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N39" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906241</v>
       </c>
       <c r="O39" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P39" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q39" t="n">
-        <v>97.83917937385695</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R39" t="n">
-        <v>90.70297645875962</v>
+        <v>117.0299190450814</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>132.8848040411315</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K40" t="n">
-        <v>352.1901855749456</v>
+        <v>127.7554157276208</v>
       </c>
       <c r="L40" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M40" t="n">
-        <v>564.8528324380011</v>
+        <v>564.852832438001</v>
       </c>
       <c r="N40" t="n">
-        <v>545.0586979658879</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O40" t="n">
-        <v>372.7371303013419</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P40" t="n">
         <v>428.7344866447547</v>
       </c>
       <c r="Q40" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R40" t="n">
-        <v>7.689198871994801</v>
+        <v>7.68919887199478</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372506</v>
       </c>
       <c r="J41" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K41" t="n">
-        <v>182.2228396528252</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L41" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M41" t="n">
-        <v>751.5725302939659</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N41" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O41" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P41" t="n">
-        <v>751.5725302939659</v>
+        <v>675.1604352841739</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R41" t="n">
-        <v>236.4222852017888</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J42" t="n">
-        <v>351.3364905475622</v>
+        <v>72.41457404110247</v>
       </c>
       <c r="K42" t="n">
-        <v>123.7680410598985</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L42" t="n">
-        <v>166.4214051299746</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M42" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N42" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O42" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119022</v>
       </c>
       <c r="P42" t="n">
-        <v>146.3620873961991</v>
+        <v>543.6403454120937</v>
       </c>
       <c r="Q42" t="n">
         <v>97.83917937385672</v>
       </c>
       <c r="R42" t="n">
-        <v>165.9446944236836</v>
+        <v>47.58835291424953</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>132.8848040411315</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K43" t="n">
-        <v>210.1928800706939</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L43" t="n">
-        <v>517.9687038524467</v>
+        <v>206.0797065660412</v>
       </c>
       <c r="M43" t="n">
-        <v>564.8528324380011</v>
+        <v>564.852832438001</v>
       </c>
       <c r="N43" t="n">
         <v>545.0586979658876</v>
       </c>
       <c r="O43" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P43" t="n">
         <v>428.7344866447547</v>
       </c>
       <c r="Q43" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R43" t="n">
-        <v>7.689198871994801</v>
+        <v>7.68919887199478</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,22 +38013,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372506</v>
       </c>
       <c r="J44" t="n">
-        <v>277.9100653568188</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K44" t="n">
-        <v>182.2228396528252</v>
+        <v>338.5489443403721</v>
       </c>
       <c r="L44" t="n">
         <v>751.5725302939657</v>
       </c>
       <c r="M44" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N44" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O44" t="n">
         <v>751.5725302939657</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J45" t="n">
-        <v>400.2512659261655</v>
+        <v>72.41457404110247</v>
       </c>
       <c r="K45" t="n">
-        <v>123.7680410598984</v>
+        <v>521.0462990757933</v>
       </c>
       <c r="L45" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M45" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N45" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O45" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119021</v>
       </c>
       <c r="P45" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q45" t="n">
-        <v>167.2807455046877</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R45" t="n">
         <v>47.58835291424953</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>132.8848040411314</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K46" t="n">
-        <v>352.1901855749456</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L46" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M46" t="n">
-        <v>564.8528324380011</v>
+        <v>510.3097543728301</v>
       </c>
       <c r="N46" t="n">
-        <v>545.0586979658879</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O46" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P46" t="n">
-        <v>116.8454893583485</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q46" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R46" t="n">
-        <v>7.689198871994801</v>
+        <v>7.68919887199478</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
